--- a/data/TESTData.xlsx
+++ b/data/TESTData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92102\OneDrive - NTHU\桌面\大三下\畢業專題\APP_新版本\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1027A6C9-8104-403A-A202-00766DE8986C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B1BA2-F521-4BE6-AE7A-3686773000AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9885" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前20大" sheetId="1" r:id="rId1"/>
@@ -7217,9 +7217,6 @@
     <t>腹瀉、噁心、食慾不振、眩暈等等→以上大約(1%-10%) 發生率。.</t>
   </si>
   <si>
-    <t>F:100MG|B:ST016</t>
-  </si>
-  <si>
     <t>藍色|橘色</t>
   </si>
   <si>
@@ -7541,9 +7538,6 @@
   </si>
   <si>
     <t>腹瀉(1.8%-9% )、噁心(2.2%-12.5% )、嘔吐感(1.2% to 4.8% )、頭痛(9.7%-39.3% )</t>
-  </si>
-  <si>
-    <t>F:FAMVIR|B:250</t>
   </si>
   <si>
     <t>OLEVA</t>
@@ -7737,13 +7731,21 @@
   </si>
   <si>
     <t>消化不良、嘔吐、頭暈、胃腸道潰瘍等等.</t>
+  </si>
+  <si>
+    <t>F:FV|B:250</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:100MGST016</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7826,6 +7828,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -7884,7 +7892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7936,11 +7944,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8160,8 +8171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="I374" sqref="I374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -8171,7 +8182,7 @@
     <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.09765625" customWidth="1"/>
     <col min="5" max="6" width="6.09765625" customWidth="1"/>
-    <col min="7" max="7" width="19.3984375" customWidth="1"/>
+    <col min="7" max="7" width="72.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.296875" customWidth="1"/>
     <col min="9" max="9" width="34.8984375" customWidth="1"/>
     <col min="10" max="10" width="6.296875" customWidth="1"/>
@@ -8189,7 +8200,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -8227,7 +8238,7 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -8265,7 +8276,7 @@
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -8303,7 +8314,7 @@
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -8341,7 +8352,7 @@
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -8379,7 +8390,7 @@
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -8417,7 +8428,7 @@
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -8455,7 +8466,7 @@
       <c r="B8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -8493,7 +8504,7 @@
       <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -8531,7 +8542,7 @@
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -8569,7 +8580,7 @@
       <c r="B11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -8607,7 +8618,7 @@
       <c r="B12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -8660,7 +8671,7 @@
       <c r="B13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -8698,7 +8709,7 @@
       <c r="B14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -8751,7 +8762,7 @@
       <c r="B15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -8789,7 +8800,7 @@
       <c r="B16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>117</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -8842,7 +8853,7 @@
       <c r="B17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>122</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -8895,7 +8906,7 @@
       <c r="B18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -8948,7 +8959,7 @@
       <c r="B19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -8986,7 +8997,7 @@
       <c r="B20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>142</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -9024,7 +9035,7 @@
       <c r="B21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>150</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -9062,7 +9073,7 @@
       <c r="B22" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>157</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -9115,7 +9126,7 @@
       <c r="B23" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="19" t="s">
         <v>164</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -9153,7 +9164,7 @@
       <c r="B24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -9206,7 +9217,7 @@
       <c r="B25" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -9244,7 +9255,7 @@
       <c r="B26" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>184</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -9296,7 +9307,7 @@
       <c r="B27" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>193</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -9334,7 +9345,7 @@
       <c r="B28" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>200</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -9372,7 +9383,7 @@
       <c r="B29" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="19" t="s">
         <v>205</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -9410,7 +9421,7 @@
       <c r="B30" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="19" t="s">
         <v>208</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -9448,7 +9459,7 @@
       <c r="B31" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="19" t="s">
         <v>215</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -11575,8 +11586,8 @@
         <v>20</v>
       </c>
       <c r="M85" s="13"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="20"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="22"/>
     </row>
     <row r="86" spans="1:15" ht="16.5" customHeight="1">
       <c r="A86" s="14">
@@ -12687,8 +12698,8 @@
         <v>20</v>
       </c>
       <c r="M113" s="13"/>
-      <c r="N113" s="19"/>
-      <c r="O113" s="20"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="22"/>
       <c r="P113" s="3" t="s">
         <v>729</v>
       </c>
@@ -13297,8 +13308,8 @@
         <v>20</v>
       </c>
       <c r="M127" s="13"/>
-      <c r="N127" s="19"/>
-      <c r="O127" s="20"/>
+      <c r="N127" s="21"/>
+      <c r="O127" s="22"/>
       <c r="P127" s="3" t="s">
         <v>729</v>
       </c>
@@ -13423,8 +13434,8 @@
         <v>20</v>
       </c>
       <c r="M130" s="13"/>
-      <c r="N130" s="19"/>
-      <c r="O130" s="20"/>
+      <c r="N130" s="21"/>
+      <c r="O130" s="22"/>
       <c r="P130" s="3" t="s">
         <v>729</v>
       </c>
@@ -15050,8 +15061,8 @@
         <v>20</v>
       </c>
       <c r="M168" s="13"/>
-      <c r="N168" s="19"/>
-      <c r="O168" s="20"/>
+      <c r="N168" s="21"/>
+      <c r="O168" s="22"/>
       <c r="P168" s="3" t="s">
         <v>729</v>
       </c>
@@ -15478,8 +15489,8 @@
         <v>326</v>
       </c>
       <c r="M178" s="13"/>
-      <c r="N178" s="19"/>
-      <c r="O178" s="20"/>
+      <c r="N178" s="21"/>
+      <c r="O178" s="22"/>
       <c r="P178" s="3" t="s">
         <v>729</v>
       </c>
@@ -15522,8 +15533,8 @@
         <v>326</v>
       </c>
       <c r="M179" s="13"/>
-      <c r="N179" s="19"/>
-      <c r="O179" s="20"/>
+      <c r="N179" s="21"/>
+      <c r="O179" s="22"/>
       <c r="P179" s="3" t="s">
         <v>729</v>
       </c>
@@ -17284,8 +17295,8 @@
         <v>43</v>
       </c>
       <c r="M220" s="13"/>
-      <c r="N220" s="19"/>
-      <c r="O220" s="20"/>
+      <c r="N220" s="21"/>
+      <c r="O220" s="22"/>
       <c r="P220" s="3" t="s">
         <v>1398</v>
       </c>
@@ -17799,8 +17810,8 @@
         <v>43</v>
       </c>
       <c r="M233" s="13"/>
-      <c r="N233" s="19"/>
-      <c r="O233" s="20"/>
+      <c r="N233" s="21"/>
+      <c r="O233" s="22"/>
     </row>
     <row r="234" spans="1:16" ht="16.5" customHeight="1">
       <c r="A234" s="2">
@@ -17925,8 +17936,8 @@
         <v>43</v>
       </c>
       <c r="M236" s="13"/>
-      <c r="N236" s="19"/>
-      <c r="O236" s="20"/>
+      <c r="N236" s="21"/>
+      <c r="O236" s="22"/>
     </row>
     <row r="237" spans="1:16" ht="16.5" customHeight="1">
       <c r="A237" s="2">
@@ -18004,8 +18015,8 @@
         <v>43</v>
       </c>
       <c r="M238" s="13"/>
-      <c r="N238" s="19"/>
-      <c r="O238" s="20"/>
+      <c r="N238" s="21"/>
+      <c r="O238" s="22"/>
     </row>
     <row r="239" spans="1:16" ht="16.5" customHeight="1">
       <c r="A239" s="2">
@@ -18982,8 +18993,8 @@
         <v>43</v>
       </c>
       <c r="M262" s="13"/>
-      <c r="N262" s="19"/>
-      <c r="O262" s="20"/>
+      <c r="N262" s="21"/>
+      <c r="O262" s="22"/>
     </row>
     <row r="263" spans="1:27" ht="16.5" customHeight="1">
       <c r="A263" s="2">
@@ -19225,8 +19236,8 @@
         <v>326</v>
       </c>
       <c r="M268" s="13"/>
-      <c r="N268" s="19"/>
-      <c r="O268" s="20"/>
+      <c r="N268" s="21"/>
+      <c r="O268" s="22"/>
     </row>
     <row r="269" spans="1:27" ht="16.5" customHeight="1">
       <c r="A269" s="2">
@@ -19304,8 +19315,8 @@
         <v>326</v>
       </c>
       <c r="M270" s="13"/>
-      <c r="N270" s="19"/>
-      <c r="O270" s="20"/>
+      <c r="N270" s="21"/>
+      <c r="O270" s="22"/>
     </row>
     <row r="271" spans="1:27" ht="16.5" customHeight="1">
       <c r="A271" s="9">
@@ -19670,8 +19681,8 @@
         <v>326</v>
       </c>
       <c r="M279" s="13"/>
-      <c r="N279" s="19"/>
-      <c r="O279" s="20"/>
+      <c r="N279" s="21"/>
+      <c r="O279" s="22"/>
     </row>
     <row r="280" spans="1:15" ht="16.5" customHeight="1">
       <c r="A280" s="2">
@@ -20485,8 +20496,8 @@
         <v>326</v>
       </c>
       <c r="M299" s="13"/>
-      <c r="N299" s="19"/>
-      <c r="O299" s="20"/>
+      <c r="N299" s="21"/>
+      <c r="O299" s="22"/>
     </row>
     <row r="300" spans="1:27" ht="16.5" customHeight="1">
       <c r="A300" s="2">
@@ -21495,8 +21506,8 @@
         <v>43</v>
       </c>
       <c r="M324" s="13"/>
-      <c r="N324" s="19"/>
-      <c r="O324" s="20"/>
+      <c r="N324" s="21"/>
+      <c r="O324" s="22"/>
     </row>
     <row r="325" spans="1:15" ht="16.5" customHeight="1">
       <c r="A325" s="2">
@@ -21975,8 +21986,8 @@
         <v>43</v>
       </c>
       <c r="M336" s="13"/>
-      <c r="N336" s="19"/>
-      <c r="O336" s="20"/>
+      <c r="N336" s="21"/>
+      <c r="O336" s="22"/>
     </row>
     <row r="337" spans="1:15" ht="16.5" customHeight="1">
       <c r="A337" s="2">
@@ -22455,8 +22466,8 @@
         <v>43</v>
       </c>
       <c r="M348" s="13"/>
-      <c r="N348" s="19"/>
-      <c r="O348" s="20"/>
+      <c r="N348" s="21"/>
+      <c r="O348" s="22"/>
     </row>
     <row r="349" spans="1:15" ht="16.5" customHeight="1">
       <c r="A349" s="2">
@@ -22613,8 +22624,8 @@
         <v>43</v>
       </c>
       <c r="M352" s="13"/>
-      <c r="N352" s="19"/>
-      <c r="O352" s="20"/>
+      <c r="N352" s="21"/>
+      <c r="O352" s="22"/>
     </row>
     <row r="353" spans="1:27" ht="16.5" customHeight="1">
       <c r="A353" s="2">
@@ -22929,8 +22940,8 @@
         <v>43</v>
       </c>
       <c r="M360" s="13"/>
-      <c r="N360" s="19"/>
-      <c r="O360" s="20"/>
+      <c r="N360" s="21"/>
+      <c r="O360" s="22"/>
     </row>
     <row r="361" spans="1:27" ht="16.5" customHeight="1">
       <c r="A361" s="2">
@@ -23140,8 +23151,8 @@
         <v>326</v>
       </c>
       <c r="M365" s="13"/>
-      <c r="N365" s="19"/>
-      <c r="O365" s="20"/>
+      <c r="N365" s="21"/>
+      <c r="O365" s="22"/>
     </row>
     <row r="366" spans="1:27" ht="16.5" customHeight="1">
       <c r="A366" s="2">
@@ -23257,8 +23268,8 @@
         <v>326</v>
       </c>
       <c r="M368" s="13"/>
-      <c r="N368" s="19"/>
-      <c r="O368" s="20"/>
+      <c r="N368" s="21"/>
+      <c r="O368" s="22"/>
     </row>
     <row r="369" spans="1:21" ht="16.5" customHeight="1">
       <c r="A369" s="2">
@@ -23339,8 +23350,8 @@
         <v>326</v>
       </c>
       <c r="M370" s="13"/>
-      <c r="N370" s="19"/>
-      <c r="O370" s="20"/>
+      <c r="N370" s="21"/>
+      <c r="O370" s="22"/>
     </row>
     <row r="371" spans="1:21" ht="16.5" customHeight="1">
       <c r="A371" s="2">
@@ -23449,11 +23460,11 @@
       <c r="H373" s="3" t="s">
         <v>2297</v>
       </c>
-      <c r="I373" s="2" t="s">
+      <c r="I373" s="20" t="s">
+        <v>2469</v>
+      </c>
+      <c r="J373" s="2" t="s">
         <v>2298</v>
-      </c>
-      <c r="J373" s="2" t="s">
-        <v>2299</v>
       </c>
       <c r="K373" s="3" t="s">
         <v>36</v>
@@ -23470,28 +23481,28 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C374" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D374" s="3" t="s">
         <v>2300</v>
       </c>
-      <c r="C374" t="s">
-        <v>2300</v>
-      </c>
-      <c r="D374" s="3" t="s">
+      <c r="E374" s="3" t="s">
         <v>2301</v>
       </c>
-      <c r="E374" s="3" t="s">
+      <c r="F374" s="3" t="s">
         <v>2302</v>
       </c>
-      <c r="F374" s="3" t="s">
+      <c r="G374" s="3" t="s">
         <v>2303</v>
       </c>
-      <c r="G374" s="3" t="s">
+      <c r="H374" s="3" t="s">
         <v>2304</v>
       </c>
-      <c r="H374" s="3" t="s">
+      <c r="I374" s="2" t="s">
         <v>2305</v>
-      </c>
-      <c r="I374" s="2" t="s">
-        <v>2306</v>
       </c>
       <c r="J374" s="2" t="s">
         <v>18</v>
@@ -23511,31 +23522,31 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C375" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D375" s="3" t="s">
         <v>2307</v>
-      </c>
-      <c r="C375" t="s">
-        <v>2307</v>
-      </c>
-      <c r="D375" s="3" t="s">
-        <v>2308</v>
       </c>
       <c r="E375" s="3" t="s">
         <v>2092</v>
       </c>
       <c r="F375" s="3" t="s">
+        <v>2308</v>
+      </c>
+      <c r="G375" s="3" t="s">
         <v>2309</v>
       </c>
-      <c r="G375" s="3" t="s">
+      <c r="H375" s="3" t="s">
         <v>2310</v>
-      </c>
-      <c r="H375" s="3" t="s">
-        <v>2311</v>
       </c>
       <c r="I375" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="K375" s="3" t="s">
         <v>36</v>
@@ -23552,13 +23563,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C376" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D376" s="3" t="s">
         <v>2313</v>
-      </c>
-      <c r="C376" t="s">
-        <v>2313</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>2314</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>1179</v>
@@ -23567,13 +23578,13 @@
         <v>1180</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="H376" s="3" t="s">
         <v>1182</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="J376" s="2" t="s">
         <v>156</v>
@@ -23593,13 +23604,13 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C377" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D377" s="3" t="s">
         <v>2317</v>
-      </c>
-      <c r="C377" t="s">
-        <v>2317</v>
-      </c>
-      <c r="D377" s="3" t="s">
-        <v>2318</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>1901</v>
@@ -23608,13 +23619,13 @@
         <v>2068</v>
       </c>
       <c r="G377" s="3" t="s">
+        <v>2318</v>
+      </c>
+      <c r="H377" s="3" t="s">
         <v>2319</v>
       </c>
-      <c r="H377" s="3" t="s">
+      <c r="I377" s="2" t="s">
         <v>2320</v>
-      </c>
-      <c r="I377" s="2" t="s">
-        <v>2321</v>
       </c>
       <c r="J377" s="2" t="s">
         <v>18</v>
@@ -23634,25 +23645,25 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C378" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D378" s="3" t="s">
         <v>2322</v>
       </c>
-      <c r="C378" t="s">
-        <v>2322</v>
-      </c>
-      <c r="D378" s="3" t="s">
+      <c r="E378" s="3" t="s">
         <v>2323</v>
       </c>
-      <c r="E378" s="3" t="s">
+      <c r="G378" s="3" t="s">
         <v>2324</v>
       </c>
-      <c r="G378" s="3" t="s">
+      <c r="H378" s="3" t="s">
         <v>2325</v>
       </c>
-      <c r="H378" s="3" t="s">
+      <c r="I378" s="2" t="s">
         <v>2326</v>
-      </c>
-      <c r="I378" s="2" t="s">
-        <v>2327</v>
       </c>
       <c r="J378" s="2" t="s">
         <v>18</v>
@@ -23672,25 +23683,25 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C379" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D379" s="3" t="s">
         <v>2328</v>
       </c>
-      <c r="C379" t="s">
-        <v>2328</v>
-      </c>
-      <c r="D379" s="3" t="s">
+      <c r="E379" s="3" t="s">
         <v>2329</v>
       </c>
-      <c r="E379" s="3" t="s">
+      <c r="G379" s="3" t="s">
         <v>2330</v>
       </c>
-      <c r="G379" s="3" t="s">
+      <c r="H379" s="3" t="s">
         <v>2331</v>
       </c>
-      <c r="H379" s="3" t="s">
+      <c r="I379" s="2" t="s">
         <v>2332</v>
-      </c>
-      <c r="I379" s="2" t="s">
-        <v>2333</v>
       </c>
       <c r="J379" s="2" t="s">
         <v>248</v>
@@ -23710,25 +23721,25 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C380" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D380" s="3" t="s">
         <v>2334</v>
       </c>
-      <c r="C380" t="s">
-        <v>2334</v>
-      </c>
-      <c r="D380" s="3" t="s">
+      <c r="E380" s="3" t="s">
         <v>2335</v>
       </c>
-      <c r="E380" s="3" t="s">
+      <c r="G380" s="3" t="s">
         <v>2336</v>
       </c>
-      <c r="G380" s="3" t="s">
+      <c r="H380" s="3" t="s">
         <v>2337</v>
       </c>
-      <c r="H380" s="3" t="s">
+      <c r="I380" s="2" t="s">
         <v>2338</v>
-      </c>
-      <c r="I380" s="2" t="s">
-        <v>2339</v>
       </c>
       <c r="J380" s="2" t="s">
         <v>248</v>
@@ -23748,25 +23759,25 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C381" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D381" s="3" t="s">
         <v>2340</v>
       </c>
-      <c r="C381" t="s">
-        <v>2340</v>
-      </c>
-      <c r="D381" s="3" t="s">
+      <c r="E381" s="3" t="s">
         <v>2341</v>
       </c>
-      <c r="E381" s="3" t="s">
+      <c r="G381" s="3" t="s">
         <v>2342</v>
       </c>
-      <c r="G381" s="3" t="s">
+      <c r="H381" s="3" t="s">
         <v>2343</v>
       </c>
-      <c r="H381" s="3" t="s">
+      <c r="I381" s="2" t="s">
         <v>2344</v>
-      </c>
-      <c r="I381" s="2" t="s">
-        <v>2345</v>
       </c>
       <c r="J381" s="2" t="s">
         <v>18</v>
@@ -23786,28 +23797,28 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C382" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D382" s="3" t="s">
         <v>2346</v>
       </c>
-      <c r="C382" t="s">
-        <v>2346</v>
-      </c>
-      <c r="D382" s="3" t="s">
+      <c r="E382" s="3" t="s">
         <v>2347</v>
       </c>
-      <c r="E382" s="3" t="s">
+      <c r="F382" s="3" t="s">
         <v>2348</v>
       </c>
-      <c r="F382" s="3" t="s">
+      <c r="G382" s="3" t="s">
         <v>2349</v>
       </c>
-      <c r="G382" s="3" t="s">
+      <c r="H382" s="3" t="s">
         <v>2350</v>
       </c>
-      <c r="H382" s="3" t="s">
+      <c r="I382" s="2" t="s">
         <v>2351</v>
-      </c>
-      <c r="I382" s="2" t="s">
-        <v>2352</v>
       </c>
       <c r="J382" s="2" t="s">
         <v>248</v>
@@ -23827,28 +23838,28 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C383" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D383" s="3" t="s">
         <v>2353</v>
       </c>
-      <c r="C383" t="s">
-        <v>2353</v>
-      </c>
-      <c r="D383" s="3" t="s">
+      <c r="E383" s="3" t="s">
         <v>2354</v>
-      </c>
-      <c r="E383" s="3" t="s">
-        <v>2355</v>
       </c>
       <c r="F383" s="3" t="s">
         <v>211</v>
       </c>
       <c r="G383" s="3" t="s">
+        <v>2355</v>
+      </c>
+      <c r="H383" s="3" t="s">
         <v>2356</v>
       </c>
-      <c r="H383" s="3" t="s">
+      <c r="I383" s="2" t="s">
         <v>2357</v>
-      </c>
-      <c r="I383" s="2" t="s">
-        <v>2358</v>
       </c>
       <c r="J383" s="2" t="s">
         <v>28</v>
@@ -23868,22 +23879,22 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D384" s="3" t="s">
         <v>2359</v>
       </c>
-      <c r="C384" t="s">
-        <v>2359</v>
-      </c>
-      <c r="D384" s="3" t="s">
+      <c r="E384" s="3" t="s">
         <v>2360</v>
-      </c>
-      <c r="E384" s="3" t="s">
-        <v>2361</v>
       </c>
       <c r="G384" s="3" t="s">
         <v>644</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>27</v>
@@ -23901,7 +23912,7 @@
       <c r="N384" s="13"/>
       <c r="O384" s="13"/>
       <c r="U384" s="3" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="385" spans="1:21" ht="16.5" customHeight="1">
@@ -23909,19 +23920,19 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C385" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D385" s="3" t="s">
         <v>2364</v>
-      </c>
-      <c r="C385" t="s">
-        <v>2364</v>
-      </c>
-      <c r="D385" s="3" t="s">
-        <v>2365</v>
       </c>
       <c r="E385" s="3" t="s">
         <v>1720</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="H385" s="3" t="s">
         <v>1722</v>
@@ -23942,7 +23953,7 @@
       <c r="N385" s="13"/>
       <c r="O385" s="13"/>
       <c r="U385" s="3" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="386" spans="1:21" ht="16.5" customHeight="1">
@@ -23950,16 +23961,16 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C386" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D386" s="3" t="s">
         <v>2368</v>
       </c>
-      <c r="C386" t="s">
-        <v>2368</v>
-      </c>
-      <c r="D386" s="3" t="s">
+      <c r="E386" s="3" t="s">
         <v>2369</v>
-      </c>
-      <c r="E386" s="3" t="s">
-        <v>2370</v>
       </c>
       <c r="F386" s="3" t="s">
         <v>2068</v>
@@ -23968,7 +23979,7 @@
         <v>1055</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I386" s="2" t="s">
         <v>27</v>
@@ -23991,22 +24002,22 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C387" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D387" s="3" t="s">
         <v>2372</v>
       </c>
-      <c r="C387" t="s">
-        <v>2372</v>
-      </c>
-      <c r="D387" s="3" t="s">
+      <c r="E387" s="3" t="s">
         <v>2373</v>
       </c>
-      <c r="E387" s="3" t="s">
+      <c r="G387" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="G387" s="3" t="s">
+      <c r="H387" s="3" t="s">
         <v>2375</v>
-      </c>
-      <c r="H387" s="3" t="s">
-        <v>2376</v>
       </c>
       <c r="I387" s="2" t="s">
         <v>27</v>
@@ -24029,28 +24040,28 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C388" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D388" s="3" t="s">
         <v>2377</v>
       </c>
-      <c r="C388" t="s">
-        <v>2377</v>
-      </c>
-      <c r="D388" s="3" t="s">
+      <c r="E388" s="3" t="s">
         <v>2378</v>
       </c>
-      <c r="E388" s="3" t="s">
+      <c r="F388" s="3" t="s">
         <v>2379</v>
       </c>
-      <c r="F388" s="3" t="s">
+      <c r="G388" s="3" t="s">
         <v>2380</v>
       </c>
-      <c r="G388" s="3" t="s">
+      <c r="H388" s="3" t="s">
         <v>2381</v>
       </c>
-      <c r="H388" s="3" t="s">
+      <c r="I388" s="2" t="s">
         <v>2382</v>
-      </c>
-      <c r="I388" s="2" t="s">
-        <v>2383</v>
       </c>
       <c r="J388" s="2" t="s">
         <v>18</v>
@@ -24070,25 +24081,25 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C389" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D389" s="3" t="s">
         <v>2384</v>
       </c>
-      <c r="C389" t="s">
-        <v>2384</v>
-      </c>
-      <c r="D389" s="3" t="s">
+      <c r="E389" s="3" t="s">
         <v>2385</v>
       </c>
-      <c r="E389" s="3" t="s">
+      <c r="G389" s="3" t="s">
         <v>2386</v>
       </c>
-      <c r="G389" s="3" t="s">
+      <c r="H389" s="3" t="s">
         <v>2387</v>
       </c>
-      <c r="H389" s="3" t="s">
+      <c r="I389" s="2" t="s">
         <v>2388</v>
-      </c>
-      <c r="I389" s="2" t="s">
-        <v>2389</v>
       </c>
       <c r="J389" s="2" t="s">
         <v>18</v>
@@ -24111,28 +24122,28 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C390" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D390" s="3" t="s">
         <v>2390</v>
       </c>
-      <c r="C390" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D390" s="3" t="s">
+      <c r="E390" s="3" t="s">
         <v>2391</v>
-      </c>
-      <c r="E390" s="3" t="s">
-        <v>2392</v>
       </c>
       <c r="F390" s="3" t="s">
         <v>1656</v>
       </c>
       <c r="G390" s="3" t="s">
+        <v>2392</v>
+      </c>
+      <c r="H390" s="3" t="s">
         <v>2393</v>
       </c>
-      <c r="H390" s="3" t="s">
+      <c r="I390" s="2" t="s">
         <v>2394</v>
-      </c>
-      <c r="I390" s="2" t="s">
-        <v>2395</v>
       </c>
       <c r="J390" s="2" t="s">
         <v>18</v>
@@ -24147,7 +24158,7 @@
       <c r="N390" s="13"/>
       <c r="O390" s="13"/>
       <c r="U390" s="3" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="391" spans="1:21" ht="16.5" customHeight="1">
@@ -24155,13 +24166,13 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C391" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D391" s="3" t="s">
         <v>2397</v>
-      </c>
-      <c r="C391" t="s">
-        <v>2397</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>2398</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>1550</v>
@@ -24170,13 +24181,13 @@
         <v>153</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="H391" s="3" t="s">
         <v>1552</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="J391" s="2" t="s">
         <v>28</v>
@@ -24196,25 +24207,25 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C392" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D392" s="3" t="s">
         <v>2401</v>
       </c>
-      <c r="C392" t="s">
-        <v>2401</v>
-      </c>
-      <c r="D392" s="3" t="s">
+      <c r="E392" s="3" t="s">
         <v>2402</v>
       </c>
-      <c r="E392" s="3" t="s">
+      <c r="G392" s="3" t="s">
         <v>2403</v>
       </c>
-      <c r="G392" s="3" t="s">
+      <c r="H392" s="3" t="s">
         <v>2404</v>
       </c>
-      <c r="H392" s="3" t="s">
-        <v>2405</v>
-      </c>
-      <c r="I392" s="2" t="s">
-        <v>2406</v>
+      <c r="I392" s="20" t="s">
+        <v>2468</v>
       </c>
       <c r="J392" s="2" t="s">
         <v>18</v>
@@ -24234,25 +24245,25 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C393" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E393" s="3" t="s">
         <v>2407</v>
       </c>
-      <c r="C393" t="s">
-        <v>2407</v>
-      </c>
-      <c r="D393" s="3" t="s">
+      <c r="F393" s="3" t="s">
         <v>2408</v>
       </c>
-      <c r="E393" s="3" t="s">
+      <c r="G393" s="3" t="s">
         <v>2409</v>
       </c>
-      <c r="F393" s="3" t="s">
+      <c r="H393" s="3" t="s">
         <v>2410</v>
-      </c>
-      <c r="G393" s="3" t="s">
-        <v>2411</v>
-      </c>
-      <c r="H393" s="3" t="s">
-        <v>2412</v>
       </c>
       <c r="I393" s="2" t="s">
         <v>27</v>
@@ -24267,33 +24278,33 @@
         <v>326</v>
       </c>
       <c r="M393" s="13"/>
-      <c r="N393" s="19"/>
-      <c r="O393" s="20"/>
+      <c r="N393" s="21"/>
+      <c r="O393" s="22"/>
     </row>
     <row r="394" spans="1:21" ht="16.5" customHeight="1">
       <c r="A394" s="2">
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C394" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E394" s="3" t="s">
         <v>2413</v>
       </c>
-      <c r="C394" t="s">
-        <v>2413</v>
-      </c>
-      <c r="D394" s="3" t="s">
+      <c r="F394" s="3" t="s">
         <v>2414</v>
-      </c>
-      <c r="E394" s="3" t="s">
-        <v>2415</v>
-      </c>
-      <c r="F394" s="3" t="s">
-        <v>2416</v>
       </c>
       <c r="G394" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="I394" s="2" t="s">
         <v>27</v>
@@ -24316,25 +24327,25 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="C395" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>1901</v>
       </c>
       <c r="F395" s="3" t="s">
+        <v>2418</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>2419</v>
+      </c>
+      <c r="H395" s="3" t="s">
         <v>2420</v>
-      </c>
-      <c r="G395" s="3" t="s">
-        <v>2421</v>
-      </c>
-      <c r="H395" s="3" t="s">
-        <v>2422</v>
       </c>
       <c r="I395" s="2" t="s">
         <v>27</v>
@@ -24357,28 +24368,28 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C396" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E396" s="3" t="s">
         <v>2423</v>
       </c>
-      <c r="C396" t="s">
-        <v>2423</v>
-      </c>
-      <c r="D396" s="3" t="s">
+      <c r="F396" s="3" t="s">
         <v>2424</v>
       </c>
-      <c r="E396" s="3" t="s">
+      <c r="G396" s="3" t="s">
         <v>2425</v>
       </c>
-      <c r="F396" s="3" t="s">
+      <c r="H396" s="3" t="s">
         <v>2426</v>
       </c>
-      <c r="G396" s="3" t="s">
+      <c r="I396" s="2" t="s">
         <v>2427</v>
-      </c>
-      <c r="H396" s="3" t="s">
-        <v>2428</v>
-      </c>
-      <c r="I396" s="2" t="s">
-        <v>2429</v>
       </c>
       <c r="J396" s="2" t="s">
         <v>248</v>
@@ -24398,22 +24409,22 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C397" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E397" s="3" t="s">
         <v>2430</v>
       </c>
-      <c r="C397" t="s">
-        <v>2430</v>
-      </c>
-      <c r="D397" s="3" t="s">
+      <c r="G397" s="3" t="s">
         <v>2431</v>
       </c>
-      <c r="E397" s="3" t="s">
+      <c r="H397" s="3" t="s">
         <v>2432</v>
-      </c>
-      <c r="G397" s="3" t="s">
-        <v>2433</v>
-      </c>
-      <c r="H397" s="3" t="s">
-        <v>2434</v>
       </c>
       <c r="I397" s="2" t="s">
         <v>27</v>
@@ -24436,25 +24447,25 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C398" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>2329</v>
+      </c>
+      <c r="G398" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="C398" t="s">
-        <v>2435</v>
-      </c>
-      <c r="D398" s="3" t="s">
+      <c r="H398" s="3" t="s">
+        <v>2331</v>
+      </c>
+      <c r="I398" s="2" t="s">
         <v>2436</v>
-      </c>
-      <c r="E398" s="3" t="s">
-        <v>2330</v>
-      </c>
-      <c r="G398" s="3" t="s">
-        <v>2437</v>
-      </c>
-      <c r="H398" s="3" t="s">
-        <v>2332</v>
-      </c>
-      <c r="I398" s="2" t="s">
-        <v>2438</v>
       </c>
       <c r="J398" s="2" t="s">
         <v>156</v>
@@ -24474,13 +24485,13 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="C399" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="E399" s="3" t="s">
         <v>1855</v>
@@ -24489,13 +24500,13 @@
         <v>1825</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="H399" s="3" t="s">
         <v>1827</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="J399" s="2" t="s">
         <v>299</v>
@@ -24515,28 +24526,28 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C400" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E400" s="3" t="s">
         <v>2443</v>
       </c>
-      <c r="C400" t="s">
-        <v>2443</v>
-      </c>
-      <c r="D400" s="3" t="s">
+      <c r="F400" s="3" t="s">
         <v>2444</v>
       </c>
-      <c r="E400" s="3" t="s">
+      <c r="G400" s="3" t="s">
         <v>2445</v>
       </c>
-      <c r="F400" s="3" t="s">
+      <c r="H400" s="3" t="s">
         <v>2446</v>
       </c>
-      <c r="G400" s="3" t="s">
+      <c r="I400" s="2" t="s">
         <v>2447</v>
-      </c>
-      <c r="H400" s="3" t="s">
-        <v>2448</v>
-      </c>
-      <c r="I400" s="2" t="s">
-        <v>2449</v>
       </c>
       <c r="J400" s="2" t="s">
         <v>86</v>
@@ -24548,10 +24559,10 @@
         <v>43</v>
       </c>
       <c r="M400" s="13"/>
-      <c r="N400" s="19"/>
-      <c r="O400" s="20"/>
+      <c r="N400" s="13"/>
+      <c r="O400" s="13"/>
       <c r="P400" s="3" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="401" spans="1:19" ht="16.5" customHeight="1">
@@ -24559,28 +24570,28 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C401" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E401" s="3" t="s">
         <v>2451</v>
       </c>
-      <c r="C401" t="s">
-        <v>2451</v>
-      </c>
-      <c r="D401" s="3" t="s">
+      <c r="F401" s="3" t="s">
         <v>2452</v>
       </c>
-      <c r="E401" s="3" t="s">
+      <c r="G401" s="3" t="s">
         <v>2453</v>
       </c>
-      <c r="F401" s="3" t="s">
+      <c r="H401" s="3" t="s">
         <v>2454</v>
       </c>
-      <c r="G401" s="3" t="s">
+      <c r="I401" s="2" t="s">
         <v>2455</v>
-      </c>
-      <c r="H401" s="3" t="s">
-        <v>2456</v>
-      </c>
-      <c r="I401" s="2" t="s">
-        <v>2457</v>
       </c>
       <c r="J401" s="2" t="s">
         <v>248</v>
@@ -24600,28 +24611,28 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C402" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E402" s="3" t="s">
         <v>2458</v>
       </c>
-      <c r="C402" t="s">
-        <v>2458</v>
-      </c>
-      <c r="D402" s="3" t="s">
+      <c r="F402" s="3" t="s">
         <v>2459</v>
       </c>
-      <c r="E402" s="3" t="s">
+      <c r="G402" s="3" t="s">
         <v>2460</v>
       </c>
-      <c r="F402" s="3" t="s">
+      <c r="H402" s="3" t="s">
         <v>2461</v>
       </c>
-      <c r="G402" s="3" t="s">
+      <c r="I402" s="2" t="s">
         <v>2462</v>
-      </c>
-      <c r="H402" s="3" t="s">
-        <v>2463</v>
-      </c>
-      <c r="I402" s="2" t="s">
-        <v>2464</v>
       </c>
       <c r="J402" s="2" t="s">
         <v>18</v>
@@ -24641,22 +24652,22 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C403" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="E403" s="3" t="s">
         <v>2465</v>
       </c>
-      <c r="C403" t="s">
-        <v>2465</v>
-      </c>
-      <c r="D403" s="3" t="s">
+      <c r="G403" s="3" t="s">
         <v>2466</v>
       </c>
-      <c r="E403" s="3" t="s">
+      <c r="H403" s="3" t="s">
         <v>2467</v>
-      </c>
-      <c r="G403" s="3" t="s">
-        <v>2468</v>
-      </c>
-      <c r="H403" s="3" t="s">
-        <v>2469</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>27</v>
@@ -24671,8 +24682,8 @@
         <v>43</v>
       </c>
       <c r="M403" s="13"/>
-      <c r="N403" s="19"/>
-      <c r="O403" s="20"/>
+      <c r="N403" s="21"/>
+      <c r="O403" s="22"/>
     </row>
     <row r="404" spans="1:19" ht="16.5" customHeight="1"/>
     <row r="405" spans="1:19" ht="16.5" customHeight="1">
@@ -25301,11 +25312,10 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
     <mergeCell ref="N368:O368"/>
     <mergeCell ref="N370:O370"/>
     <mergeCell ref="N393:O393"/>
-    <mergeCell ref="N400:O400"/>
     <mergeCell ref="N403:O403"/>
     <mergeCell ref="N238:O238"/>
     <mergeCell ref="N262:O262"/>

--- a/data/TESTData.xlsx
+++ b/data/TESTData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92102\OneDrive - NTHU\桌面\大三下\畢業專題\APP_新版本\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365nthu-my.sharepoint.com/personal/111030076_office365_nthu_edu_tw/Documents/桌面/大三下/畢業專題/APP_新版本/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C19FF-ED56-471F-8D9A-0A095A430052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{526C19FF-ED56-471F-8D9A-0A095A430052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DEEF1E3-961B-4205-B5EB-4D3B535A6E72}"/>
   <bookViews>
-    <workbookView xWindow="-9885" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前20大" sheetId="1" r:id="rId1"/>
@@ -4792,9 +4792,6 @@
     <t>噁心、頭暈、頭痛、複視等。</t>
   </si>
   <si>
-    <t>F:SP|B:SP</t>
-  </si>
-  <si>
     <t>OIMID</t>
   </si>
   <si>
@@ -7765,6 +7762,10 @@
   </si>
   <si>
     <t>F:CTA-231|B:NONE</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:SP|B:100</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -8198,8 +8199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E71" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
+    <sheetView tabSelected="1" topLeftCell="F231" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I241" sqref="I241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -8259,7 +8260,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1">
@@ -8273,7 +8274,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -8653,7 +8654,7 @@
         <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>87</v>
@@ -8758,7 +8759,7 @@
         <v>105</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>17</v>
@@ -9118,7 +9119,7 @@
         <v>159</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>153</v>
@@ -9260,7 +9261,7 @@
         <v>178</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>17</v>
@@ -9388,7 +9389,7 @@
         <v>199</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>126</v>
@@ -9861,7 +9862,7 @@
         <v>274</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>275</v>
@@ -16545,7 +16546,7 @@
         <v>1299</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E206" s="10" t="s">
         <v>405</v>
@@ -17965,8 +17966,8 @@
       <c r="H241" s="3" t="s">
         <v>1507</v>
       </c>
-      <c r="I241" s="2" t="s">
-        <v>1508</v>
+      <c r="I241" s="20" t="s">
+        <v>2469</v>
       </c>
       <c r="J241" s="2" t="s">
         <v>27</v>
@@ -17985,28 +17986,28 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D242" s="3" t="s">
         <v>1509</v>
-      </c>
-      <c r="C242" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>1510</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>866</v>
       </c>
       <c r="F242" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G242" s="3" t="s">
         <v>1511</v>
       </c>
-      <c r="G242" s="3" t="s">
+      <c r="H242" s="3" t="s">
         <v>1512</v>
       </c>
-      <c r="H242" s="3" t="s">
+      <c r="I242" s="2" t="s">
         <v>1513</v>
-      </c>
-      <c r="I242" s="2" t="s">
-        <v>1514</v>
       </c>
       <c r="J242" s="2" t="s">
         <v>17</v>
@@ -18025,25 +18026,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>1515</v>
-      </c>
-      <c r="C243" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>1516</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>1016</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H243" s="3" t="s">
         <v>1018</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>795</v>
@@ -18062,25 +18063,25 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D244" s="3" t="s">
         <v>1519</v>
       </c>
-      <c r="C244" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D244" s="3" t="s">
+      <c r="E244" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="F244" s="3" t="s">
         <v>1521</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="G244" s="3" t="s">
         <v>1522</v>
       </c>
-      <c r="G244" s="3" t="s">
+      <c r="H244" s="3" t="s">
         <v>1523</v>
-      </c>
-      <c r="H244" s="3" t="s">
-        <v>1524</v>
       </c>
       <c r="I244" s="2" t="s">
         <v>26</v>
@@ -18102,28 +18103,28 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D245" s="3" t="s">
         <v>1525</v>
       </c>
-      <c r="C245" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D245" s="3" t="s">
+      <c r="E245" s="3" t="s">
         <v>1526</v>
       </c>
-      <c r="E245" s="3" t="s">
+      <c r="F245" s="3" t="s">
         <v>1527</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="G245" s="3" t="s">
         <v>1528</v>
       </c>
-      <c r="G245" s="3" t="s">
+      <c r="H245" s="3" t="s">
         <v>1529</v>
       </c>
-      <c r="H245" s="3" t="s">
+      <c r="I245" s="2" t="s">
         <v>1530</v>
-      </c>
-      <c r="I245" s="2" t="s">
-        <v>1531</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>27</v>
@@ -18142,28 +18143,28 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D246" s="3" t="s">
         <v>1532</v>
       </c>
-      <c r="C246" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D246" s="3" t="s">
+      <c r="E246" s="3" t="s">
         <v>1533</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="F246" s="3" t="s">
         <v>1534</v>
       </c>
-      <c r="F246" s="3" t="s">
+      <c r="G246" s="3" t="s">
         <v>1535</v>
       </c>
-      <c r="G246" s="3" t="s">
+      <c r="H246" s="3" t="s">
         <v>1536</v>
       </c>
-      <c r="H246" s="3" t="s">
+      <c r="I246" s="2" t="s">
         <v>1537</v>
-      </c>
-      <c r="I246" s="2" t="s">
-        <v>1538</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>17</v>
@@ -18182,28 +18183,28 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D247" s="3" t="s">
         <v>1539</v>
       </c>
-      <c r="C247" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D247" s="3" t="s">
+      <c r="E247" s="3" t="s">
         <v>1540</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>1541</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>150</v>
       </c>
       <c r="G247" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H247" s="3" t="s">
         <v>1542</v>
       </c>
-      <c r="H247" s="3" t="s">
+      <c r="I247" s="2" t="s">
         <v>1543</v>
-      </c>
-      <c r="I247" s="2" t="s">
-        <v>1544</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>27</v>
@@ -18222,25 +18223,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D248" s="3" t="s">
         <v>1545</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>1546</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>1064</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H248" s="3" t="s">
         <v>1066</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>293</v>
@@ -18259,28 +18260,28 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D249" s="3" t="s">
         <v>1549</v>
       </c>
-      <c r="C249" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D249" s="3" t="s">
+      <c r="E249" s="3" t="s">
         <v>1550</v>
       </c>
-      <c r="E249" s="3" t="s">
+      <c r="F249" s="3" t="s">
         <v>1551</v>
       </c>
-      <c r="F249" s="3" t="s">
+      <c r="G249" s="3" t="s">
         <v>1552</v>
       </c>
-      <c r="G249" s="3" t="s">
+      <c r="H249" s="3" t="s">
         <v>1553</v>
       </c>
-      <c r="H249" s="3" t="s">
+      <c r="I249" s="2" t="s">
         <v>1554</v>
-      </c>
-      <c r="I249" s="2" t="s">
-        <v>1555</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>27</v>
@@ -18299,28 +18300,28 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D250" s="3" t="s">
         <v>1556</v>
       </c>
-      <c r="C250" t="s">
-        <v>1556</v>
-      </c>
-      <c r="D250" s="3" t="s">
+      <c r="E250" s="3" t="s">
         <v>1557</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>1558</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>206</v>
       </c>
       <c r="G250" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="H250" s="3" t="s">
         <v>1559</v>
       </c>
-      <c r="H250" s="3" t="s">
+      <c r="I250" s="2" t="s">
         <v>1560</v>
-      </c>
-      <c r="I250" s="2" t="s">
-        <v>1561</v>
       </c>
       <c r="J250" s="2" t="s">
         <v>27</v>
@@ -18339,28 +18340,28 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D251" s="3" t="s">
         <v>1562</v>
       </c>
-      <c r="C251" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D251" s="3" t="s">
+      <c r="E251" s="3" t="s">
         <v>1563</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="F251" s="3" t="s">
         <v>1564</v>
       </c>
-      <c r="F251" s="3" t="s">
+      <c r="G251" s="3" t="s">
         <v>1565</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>1566</v>
       </c>
       <c r="H251" s="3" t="s">
         <v>1425</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="J251" s="2" t="s">
         <v>17</v>
@@ -18382,13 +18383,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D252" s="3" t="s">
         <v>1568</v>
-      </c>
-      <c r="C252" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>1569</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>205</v>
@@ -18397,13 +18398,13 @@
         <v>206</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H252" s="3" t="s">
         <v>208</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="J252" s="2" t="s">
         <v>17</v>
@@ -18422,28 +18423,28 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D253" s="3" t="s">
         <v>1572</v>
       </c>
-      <c r="C253" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D253" s="3" t="s">
+      <c r="E253" s="3" t="s">
         <v>1573</v>
       </c>
-      <c r="E253" s="3" t="s">
+      <c r="F253" s="3" t="s">
         <v>1574</v>
       </c>
-      <c r="F253" s="3" t="s">
+      <c r="G253" s="3" t="s">
         <v>1575</v>
       </c>
-      <c r="G253" s="3" t="s">
+      <c r="H253" s="3" t="s">
         <v>1576</v>
       </c>
-      <c r="H253" s="3" t="s">
+      <c r="I253" s="2" t="s">
         <v>1577</v>
-      </c>
-      <c r="I253" s="2" t="s">
-        <v>1578</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>17</v>
@@ -18462,25 +18463,25 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D254" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="C254" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D254" s="3" t="s">
+      <c r="E254" s="3" t="s">
         <v>1580</v>
       </c>
-      <c r="E254" s="3" t="s">
+      <c r="G254" s="3" t="s">
         <v>1581</v>
       </c>
-      <c r="G254" s="3" t="s">
+      <c r="H254" s="3" t="s">
         <v>1582</v>
       </c>
-      <c r="H254" s="3" t="s">
+      <c r="I254" s="2" t="s">
         <v>1583</v>
-      </c>
-      <c r="I254" s="2" t="s">
-        <v>1584</v>
       </c>
       <c r="J254" s="2" t="s">
         <v>27</v>
@@ -18499,25 +18500,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D255" s="3" t="s">
         <v>1585</v>
       </c>
-      <c r="C255" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D255" s="3" t="s">
+      <c r="E255" s="3" t="s">
         <v>1586</v>
       </c>
-      <c r="E255" s="3" t="s">
+      <c r="F255" s="3" t="s">
         <v>1587</v>
       </c>
-      <c r="F255" s="3" t="s">
+      <c r="G255" s="3" t="s">
         <v>1588</v>
       </c>
-      <c r="G255" s="3" t="s">
+      <c r="H255" s="3" t="s">
         <v>1589</v>
-      </c>
-      <c r="H255" s="3" t="s">
-        <v>1590</v>
       </c>
       <c r="I255" s="2" t="s">
         <v>26</v>
@@ -18539,28 +18540,28 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D256" s="3" t="s">
         <v>1591</v>
       </c>
-      <c r="C256" t="s">
-        <v>1591</v>
-      </c>
-      <c r="D256" s="3" t="s">
+      <c r="E256" s="3" t="s">
         <v>1592</v>
       </c>
-      <c r="E256" s="3" t="s">
+      <c r="F256" s="3" t="s">
         <v>1593</v>
       </c>
-      <c r="F256" s="3" t="s">
+      <c r="G256" s="3" t="s">
         <v>1594</v>
       </c>
-      <c r="G256" s="3" t="s">
+      <c r="H256" s="3" t="s">
         <v>1595</v>
       </c>
-      <c r="H256" s="3" t="s">
+      <c r="I256" s="2" t="s">
         <v>1596</v>
-      </c>
-      <c r="I256" s="2" t="s">
-        <v>1597</v>
       </c>
       <c r="J256" s="2" t="s">
         <v>243</v>
@@ -18574,7 +18575,7 @@
       <c r="N256" s="13"/>
       <c r="O256" s="13"/>
       <c r="P256" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="257" spans="1:27" ht="16.5" customHeight="1">
@@ -18582,25 +18583,25 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D257" s="3" t="s">
         <v>1599</v>
       </c>
-      <c r="C257" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D257" s="3" t="s">
+      <c r="E257" s="3" t="s">
         <v>1600</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="F257" s="3" t="s">
         <v>1601</v>
       </c>
-      <c r="F257" s="3" t="s">
+      <c r="G257" s="3" t="s">
         <v>1602</v>
       </c>
-      <c r="G257" s="3" t="s">
+      <c r="H257" s="3" t="s">
         <v>1603</v>
-      </c>
-      <c r="H257" s="3" t="s">
-        <v>1604</v>
       </c>
       <c r="I257" s="2" t="s">
         <v>26</v>
@@ -18622,28 +18623,28 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D258" s="3" t="s">
         <v>1605</v>
       </c>
-      <c r="C258" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D258" s="3" t="s">
+      <c r="E258" s="3" t="s">
         <v>1606</v>
       </c>
-      <c r="E258" s="3" t="s">
+      <c r="F258" s="3" t="s">
         <v>1607</v>
       </c>
-      <c r="F258" s="3" t="s">
+      <c r="G258" s="3" t="s">
         <v>1608</v>
       </c>
-      <c r="G258" s="3" t="s">
+      <c r="H258" s="3" t="s">
         <v>1609</v>
       </c>
-      <c r="H258" s="3" t="s">
+      <c r="I258" s="2" t="s">
         <v>1610</v>
-      </c>
-      <c r="I258" s="2" t="s">
-        <v>1611</v>
       </c>
       <c r="J258" s="2" t="s">
         <v>760</v>
@@ -18662,28 +18663,28 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D259" s="3" t="s">
         <v>1612</v>
       </c>
-      <c r="C259" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D259" s="3" t="s">
+      <c r="E259" s="3" t="s">
         <v>1613</v>
       </c>
-      <c r="E259" s="3" t="s">
+      <c r="F259" s="3" t="s">
         <v>1614</v>
       </c>
-      <c r="F259" s="3" t="s">
+      <c r="G259" s="3" t="s">
         <v>1615</v>
       </c>
-      <c r="G259" s="3" t="s">
+      <c r="H259" s="3" t="s">
         <v>1616</v>
       </c>
-      <c r="H259" s="3" t="s">
+      <c r="I259" s="2" t="s">
         <v>1617</v>
-      </c>
-      <c r="I259" s="2" t="s">
-        <v>1618</v>
       </c>
       <c r="J259" s="2" t="s">
         <v>27</v>
@@ -18702,28 +18703,28 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D260" s="3" t="s">
         <v>1619</v>
       </c>
-      <c r="C260" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D260" s="3" t="s">
+      <c r="E260" s="3" t="s">
         <v>1620</v>
       </c>
-      <c r="E260" s="3" t="s">
+      <c r="F260" s="3" t="s">
         <v>1621</v>
       </c>
-      <c r="F260" s="3" t="s">
+      <c r="G260" s="3" t="s">
         <v>1622</v>
       </c>
-      <c r="G260" s="3" t="s">
+      <c r="H260" s="3" t="s">
         <v>1623</v>
       </c>
-      <c r="H260" s="3" t="s">
+      <c r="I260" s="2" t="s">
         <v>1624</v>
-      </c>
-      <c r="I260" s="2" t="s">
-        <v>1625</v>
       </c>
       <c r="J260" s="2" t="s">
         <v>17</v>
@@ -18742,25 +18743,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D261" s="3" t="s">
         <v>1626</v>
       </c>
-      <c r="C261" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D261" s="3" t="s">
+      <c r="E261" s="3" t="s">
         <v>1627</v>
       </c>
-      <c r="E261" s="3" t="s">
+      <c r="F261" s="3" t="s">
         <v>1628</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>1629</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>1011</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="I261" s="2" t="s">
         <v>26</v>
@@ -18782,31 +18783,31 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D262" s="3" t="s">
         <v>1631</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>1632</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>392</v>
       </c>
       <c r="F262" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G262" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="G262" s="3" t="s">
+      <c r="H262" s="3" t="s">
         <v>1634</v>
       </c>
-      <c r="H262" s="3" t="s">
+      <c r="I262" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="I262" s="2" t="s">
+      <c r="J262" s="2" t="s">
         <v>1636</v>
-      </c>
-      <c r="J262" s="2" t="s">
-        <v>1637</v>
       </c>
       <c r="K262" s="3" t="s">
         <v>35</v>
@@ -18822,25 +18823,25 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D263" s="3" t="s">
         <v>1638</v>
       </c>
-      <c r="C263" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D263" s="3" t="s">
+      <c r="E263" s="3" t="s">
         <v>1639</v>
       </c>
-      <c r="E263" s="3" t="s">
+      <c r="G263" s="3" t="s">
         <v>1640</v>
       </c>
-      <c r="G263" s="3" t="s">
+      <c r="H263" s="3" t="s">
         <v>1641</v>
       </c>
-      <c r="H263" s="3" t="s">
+      <c r="I263" s="2" t="s">
         <v>1642</v>
-      </c>
-      <c r="I263" s="2" t="s">
-        <v>1643</v>
       </c>
       <c r="J263" s="2" t="s">
         <v>17</v>
@@ -18859,22 +18860,22 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D264" s="3" t="s">
         <v>1644</v>
       </c>
-      <c r="C264" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D264" s="3" t="s">
+      <c r="E264" s="3" t="s">
         <v>1645</v>
       </c>
-      <c r="E264" s="3" t="s">
+      <c r="F264" s="3" t="s">
         <v>1646</v>
       </c>
-      <c r="F264" s="3" t="s">
+      <c r="G264" s="3" t="s">
         <v>1647</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>1648</v>
       </c>
       <c r="H264" s="3" t="s">
         <v>25</v>
@@ -18899,28 +18900,28 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D265" s="3" t="s">
         <v>1649</v>
       </c>
-      <c r="C265" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D265" s="3" t="s">
+      <c r="E265" s="3" t="s">
         <v>1650</v>
       </c>
-      <c r="E265" s="3" t="s">
+      <c r="F265" s="3" t="s">
         <v>1651</v>
       </c>
-      <c r="F265" s="3" t="s">
+      <c r="G265" s="3" t="s">
         <v>1652</v>
       </c>
-      <c r="G265" s="3" t="s">
+      <c r="H265" s="3" t="s">
         <v>1653</v>
       </c>
-      <c r="H265" s="3" t="s">
+      <c r="I265" s="2" t="s">
         <v>1654</v>
-      </c>
-      <c r="I265" s="2" t="s">
-        <v>1655</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>27</v>
@@ -18939,28 +18940,28 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D266" s="3" t="s">
         <v>1656</v>
       </c>
-      <c r="C266" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D266" s="3" t="s">
+      <c r="E266" s="3" t="s">
         <v>1657</v>
       </c>
-      <c r="E266" s="3" t="s">
+      <c r="F266" s="3" t="s">
         <v>1658</v>
       </c>
-      <c r="F266" s="3" t="s">
+      <c r="G266" s="3" t="s">
         <v>1659</v>
       </c>
-      <c r="G266" s="3" t="s">
+      <c r="H266" s="3" t="s">
         <v>1660</v>
       </c>
-      <c r="H266" s="3" t="s">
+      <c r="I266" s="2" t="s">
         <v>1661</v>
-      </c>
-      <c r="I266" s="2" t="s">
-        <v>1662</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>153</v>
@@ -18979,28 +18980,28 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D267" s="3" t="s">
         <v>1663</v>
       </c>
-      <c r="C267" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D267" s="3" t="s">
+      <c r="E267" s="3" t="s">
         <v>1664</v>
       </c>
-      <c r="E267" s="3" t="s">
+      <c r="F267" s="3" t="s">
         <v>1665</v>
       </c>
-      <c r="F267" s="3" t="s">
+      <c r="G267" s="3" t="s">
         <v>1666</v>
       </c>
-      <c r="G267" s="3" t="s">
+      <c r="H267" s="3" t="s">
         <v>1667</v>
       </c>
-      <c r="H267" s="3" t="s">
+      <c r="I267" s="2" t="s">
         <v>1668</v>
-      </c>
-      <c r="I267" s="2" t="s">
-        <v>1669</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>821</v>
@@ -19019,25 +19020,25 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D268" s="3" t="s">
         <v>1670</v>
       </c>
-      <c r="C268" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D268" s="3" t="s">
+      <c r="E268" s="3" t="s">
         <v>1671</v>
       </c>
-      <c r="E268" s="3" t="s">
+      <c r="F268" s="3" t="s">
         <v>1672</v>
       </c>
-      <c r="F268" s="3" t="s">
+      <c r="G268" s="3" t="s">
         <v>1673</v>
       </c>
-      <c r="G268" s="3" t="s">
+      <c r="H268" s="3" t="s">
         <v>1674</v>
-      </c>
-      <c r="H268" s="3" t="s">
-        <v>1675</v>
       </c>
       <c r="I268" s="2" t="s">
         <v>1415</v>
@@ -19059,28 +19060,28 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D269" s="3" t="s">
         <v>1676</v>
       </c>
-      <c r="C269" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D269" s="3" t="s">
+      <c r="E269" s="3" t="s">
         <v>1677</v>
       </c>
-      <c r="E269" s="3" t="s">
+      <c r="F269" s="3" t="s">
         <v>1678</v>
       </c>
-      <c r="F269" s="3" t="s">
+      <c r="G269" s="3" t="s">
         <v>1679</v>
       </c>
-      <c r="G269" s="3" t="s">
+      <c r="H269" s="3" t="s">
         <v>1680</v>
       </c>
-      <c r="H269" s="3" t="s">
+      <c r="I269" s="2" t="s">
         <v>1681</v>
-      </c>
-      <c r="I269" s="2" t="s">
-        <v>1682</v>
       </c>
       <c r="J269" s="2" t="s">
         <v>27</v>
@@ -19099,25 +19100,25 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D270" s="3" t="s">
         <v>1683</v>
       </c>
-      <c r="C270" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D270" s="3" t="s">
+      <c r="E270" s="3" t="s">
         <v>1684</v>
       </c>
-      <c r="E270" s="3" t="s">
+      <c r="G270" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="G270" s="3" t="s">
+      <c r="H270" s="3" t="s">
         <v>1686</v>
       </c>
-      <c r="H270" s="3" t="s">
+      <c r="I270" s="2" t="s">
         <v>1687</v>
-      </c>
-      <c r="I270" s="2" t="s">
-        <v>1688</v>
       </c>
       <c r="J270" s="2" t="s">
         <v>27</v>
@@ -19136,25 +19137,25 @@
         <v>270</v>
       </c>
       <c r="B271" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D271" s="10" t="s">
         <v>1689</v>
       </c>
-      <c r="C271" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D271" s="10" t="s">
+      <c r="E271" s="10" t="s">
         <v>1690</v>
       </c>
-      <c r="E271" s="10" t="s">
+      <c r="F271" s="10" t="s">
         <v>1691</v>
-      </c>
-      <c r="F271" s="10" t="s">
-        <v>1692</v>
       </c>
       <c r="G271" s="10">
         <v>0</v>
       </c>
       <c r="H271" s="10" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="I271" s="2" t="s">
         <v>26</v>
@@ -19182,19 +19183,19 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D272" s="3" t="s">
         <v>1694</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>1695</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>1281</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H272" s="3" t="s">
         <v>1283</v>
@@ -19219,25 +19220,25 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D273" s="3" t="s">
         <v>1697</v>
       </c>
-      <c r="C273" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D273" s="3" t="s">
+      <c r="E273" s="3" t="s">
         <v>1698</v>
       </c>
-      <c r="E273" s="3" t="s">
+      <c r="G273" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="G273" s="3" t="s">
+      <c r="H273" s="3" t="s">
         <v>1700</v>
       </c>
-      <c r="H273" s="3" t="s">
+      <c r="I273" s="2" t="s">
         <v>1701</v>
-      </c>
-      <c r="I273" s="2" t="s">
-        <v>1702</v>
       </c>
       <c r="J273" s="2" t="s">
         <v>427</v>
@@ -19256,28 +19257,28 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D274" s="3" t="s">
         <v>1703</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>1704</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>732</v>
       </c>
       <c r="F274" s="3" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G274" s="3" t="s">
         <v>1705</v>
       </c>
-      <c r="G274" s="3" t="s">
+      <c r="H274" s="3" t="s">
         <v>1706</v>
       </c>
-      <c r="H274" s="3" t="s">
+      <c r="I274" s="2" t="s">
         <v>1707</v>
-      </c>
-      <c r="I274" s="2" t="s">
-        <v>1708</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>243</v>
@@ -19296,25 +19297,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D275" s="3" t="s">
         <v>1709</v>
       </c>
-      <c r="C275" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D275" s="3" t="s">
+      <c r="E275" s="3" t="s">
         <v>1710</v>
       </c>
-      <c r="E275" s="3" t="s">
+      <c r="G275" s="3" t="s">
         <v>1711</v>
       </c>
-      <c r="G275" s="3" t="s">
+      <c r="H275" s="3" t="s">
         <v>1712</v>
       </c>
-      <c r="H275" s="3" t="s">
+      <c r="I275" s="2" t="s">
         <v>1713</v>
-      </c>
-      <c r="I275" s="2" t="s">
-        <v>1714</v>
       </c>
       <c r="J275" s="2" t="s">
         <v>17</v>
@@ -19333,16 +19334,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D276" s="3" t="s">
         <v>1715</v>
       </c>
-      <c r="C276" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D276" s="3" t="s">
+      <c r="E276" s="3" t="s">
         <v>1716</v>
-      </c>
-      <c r="E276" s="3" t="s">
-        <v>1717</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>206</v>
@@ -19351,10 +19352,10 @@
         <v>0</v>
       </c>
       <c r="H276" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="I276" s="2" t="s">
         <v>1718</v>
-      </c>
-      <c r="I276" s="2" t="s">
-        <v>1719</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>17</v>
@@ -19373,28 +19374,28 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D277" s="3" t="s">
         <v>1720</v>
-      </c>
-      <c r="C277" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>1721</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>459</v>
       </c>
       <c r="F277" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G277" s="3" t="s">
         <v>1722</v>
       </c>
-      <c r="G277" s="3" t="s">
+      <c r="H277" s="3" t="s">
         <v>1723</v>
       </c>
-      <c r="H277" s="3" t="s">
+      <c r="I277" s="2" t="s">
         <v>1724</v>
-      </c>
-      <c r="I277" s="2" t="s">
-        <v>1725</v>
       </c>
       <c r="J277" s="2" t="s">
         <v>427</v>
@@ -19413,28 +19414,28 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D278" s="3" t="s">
         <v>1726</v>
       </c>
-      <c r="C278" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D278" s="3" t="s">
+      <c r="E278" s="3" t="s">
         <v>1727</v>
       </c>
-      <c r="E278" s="3" t="s">
+      <c r="F278" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="F278" s="3" t="s">
+      <c r="G278" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="G278" s="3" t="s">
+      <c r="H278" s="3" t="s">
         <v>1730</v>
       </c>
-      <c r="H278" s="3" t="s">
+      <c r="I278" s="2" t="s">
         <v>1731</v>
-      </c>
-      <c r="I278" s="2" t="s">
-        <v>1732</v>
       </c>
       <c r="J278" s="2" t="s">
         <v>27</v>
@@ -19453,31 +19454,31 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D279" s="3" t="s">
         <v>1733</v>
       </c>
-      <c r="C279" t="s">
-        <v>1733</v>
-      </c>
-      <c r="D279" s="3" t="s">
+      <c r="E279" s="3" t="s">
         <v>1734</v>
       </c>
-      <c r="E279" s="3" t="s">
+      <c r="F279" s="3" t="s">
         <v>1735</v>
       </c>
-      <c r="F279" s="3" t="s">
+      <c r="G279" s="3" t="s">
         <v>1736</v>
       </c>
-      <c r="G279" s="3" t="s">
+      <c r="H279" s="3" t="s">
         <v>1737</v>
       </c>
-      <c r="H279" s="3" t="s">
+      <c r="I279" s="2" t="s">
         <v>1738</v>
       </c>
-      <c r="I279" s="2" t="s">
+      <c r="J279" s="2" t="s">
         <v>1739</v>
-      </c>
-      <c r="J279" s="2" t="s">
-        <v>1740</v>
       </c>
       <c r="K279" s="3" t="s">
         <v>35</v>
@@ -19493,25 +19494,25 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D280" s="3" t="s">
         <v>1741</v>
       </c>
-      <c r="C280" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D280" s="3" t="s">
+      <c r="E280" s="3" t="s">
         <v>1742</v>
       </c>
-      <c r="E280" s="3" t="s">
+      <c r="G280" s="3" t="s">
         <v>1743</v>
       </c>
-      <c r="G280" s="3" t="s">
+      <c r="H280" s="3" t="s">
         <v>1744</v>
       </c>
-      <c r="H280" s="3" t="s">
+      <c r="I280" s="2" t="s">
         <v>1745</v>
-      </c>
-      <c r="I280" s="2" t="s">
-        <v>1746</v>
       </c>
       <c r="J280" s="2" t="s">
         <v>17</v>
@@ -19530,28 +19531,28 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D281" s="3" t="s">
         <v>1747</v>
       </c>
-      <c r="C281" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D281" s="3" t="s">
+      <c r="E281" s="3" t="s">
         <v>1748</v>
       </c>
-      <c r="E281" s="3" t="s">
+      <c r="F281" s="3" t="s">
         <v>1749</v>
       </c>
-      <c r="F281" s="3" t="s">
+      <c r="G281" s="3" t="s">
         <v>1750</v>
       </c>
-      <c r="G281" s="3" t="s">
+      <c r="H281" s="3" t="s">
         <v>1751</v>
       </c>
-      <c r="H281" s="3" t="s">
+      <c r="I281" s="2" t="s">
         <v>1752</v>
-      </c>
-      <c r="I281" s="2" t="s">
-        <v>1753</v>
       </c>
       <c r="J281" s="2" t="s">
         <v>17</v>
@@ -19570,22 +19571,22 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D282" s="3" t="s">
         <v>1754</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>1755</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>1270</v>
       </c>
       <c r="F282" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G282" s="3" t="s">
         <v>1756</v>
-      </c>
-      <c r="G282" s="3" t="s">
-        <v>1757</v>
       </c>
       <c r="H282" s="3" t="s">
         <v>1272</v>
@@ -19610,28 +19611,28 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D283" s="3" t="s">
         <v>1758</v>
       </c>
-      <c r="C283" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D283" s="3" t="s">
+      <c r="E283" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G283" s="3" t="s">
         <v>1759</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F283" s="3" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G283" s="3" t="s">
-        <v>1760</v>
       </c>
       <c r="H283" s="3" t="s">
         <v>1425</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="J283" s="2" t="s">
         <v>17</v>
@@ -19650,25 +19651,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D284" s="3" t="s">
         <v>1762</v>
       </c>
-      <c r="C284" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D284" s="3" t="s">
+      <c r="E284" s="3" t="s">
         <v>1763</v>
       </c>
-      <c r="E284" s="3" t="s">
+      <c r="F284" s="3" t="s">
         <v>1764</v>
       </c>
-      <c r="F284" s="3" t="s">
+      <c r="G284" s="3" t="s">
         <v>1765</v>
       </c>
-      <c r="G284" s="3" t="s">
+      <c r="H284" s="3" t="s">
         <v>1766</v>
-      </c>
-      <c r="H284" s="3" t="s">
-        <v>1767</v>
       </c>
       <c r="I284" s="2" t="s">
         <v>26</v>
@@ -19690,28 +19691,28 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>1768</v>
-      </c>
-      <c r="C285" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>1769</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>1140</v>
       </c>
       <c r="F285" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G285" s="3" t="s">
         <v>1770</v>
-      </c>
-      <c r="G285" s="3" t="s">
-        <v>1771</v>
       </c>
       <c r="H285" s="3" t="s">
         <v>1143</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="J285" s="2" t="s">
         <v>561</v>
@@ -19730,22 +19731,22 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D286" s="3" t="s">
         <v>1773</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>1774</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>141</v>
       </c>
       <c r="F286" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G286" s="3" t="s">
         <v>1775</v>
-      </c>
-      <c r="G286" s="3" t="s">
-        <v>1776</v>
       </c>
       <c r="H286" s="3" t="s">
         <v>144</v>
@@ -19770,25 +19771,25 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D287" s="3" t="s">
         <v>1777</v>
       </c>
-      <c r="C287" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D287" s="3" t="s">
+      <c r="E287" s="3" t="s">
         <v>1778</v>
       </c>
-      <c r="E287" s="3" t="s">
+      <c r="G287" s="3" t="s">
         <v>1779</v>
       </c>
-      <c r="G287" s="3" t="s">
+      <c r="H287" s="3" t="s">
         <v>1780</v>
       </c>
-      <c r="H287" s="3" t="s">
+      <c r="I287" s="2" t="s">
         <v>1781</v>
-      </c>
-      <c r="I287" s="2" t="s">
-        <v>1782</v>
       </c>
       <c r="J287" s="2" t="s">
         <v>17</v>
@@ -19807,25 +19808,25 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D288" s="3" t="s">
         <v>1783</v>
-      </c>
-      <c r="C288" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>1784</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F288" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G288" s="3" t="s">
         <v>1785</v>
       </c>
-      <c r="G288" s="3" t="s">
-        <v>1786</v>
-      </c>
       <c r="H288" s="3" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="I288" s="2" t="s">
         <v>26</v>
@@ -19847,25 +19848,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D289" s="3" t="s">
         <v>1787</v>
       </c>
-      <c r="C289" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D289" s="3" t="s">
+      <c r="E289" s="3" t="s">
         <v>1788</v>
       </c>
-      <c r="E289" s="3" t="s">
+      <c r="F289" s="3" t="s">
         <v>1789</v>
       </c>
-      <c r="F289" s="3" t="s">
+      <c r="G289" s="3" t="s">
         <v>1790</v>
       </c>
-      <c r="G289" s="3" t="s">
+      <c r="H289" s="3" t="s">
         <v>1791</v>
-      </c>
-      <c r="H289" s="3" t="s">
-        <v>1792</v>
       </c>
       <c r="I289" s="2" t="s">
         <v>554</v>
@@ -19887,28 +19888,28 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D290" s="3" t="s">
         <v>1793</v>
       </c>
-      <c r="C290" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D290" s="3" t="s">
+      <c r="E290" s="3" t="s">
         <v>1794</v>
       </c>
-      <c r="E290" s="3" t="s">
+      <c r="G290" s="3" t="s">
         <v>1795</v>
       </c>
-      <c r="G290" s="3" t="s">
+      <c r="H290" s="3" t="s">
         <v>1796</v>
       </c>
-      <c r="H290" s="3" t="s">
+      <c r="I290" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="I290" s="2" t="s">
+      <c r="J290" s="2" t="s">
         <v>1798</v>
-      </c>
-      <c r="J290" s="2" t="s">
-        <v>1799</v>
       </c>
       <c r="K290" s="3" t="s">
         <v>35</v>
@@ -19924,25 +19925,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D291" s="3" t="s">
         <v>1800</v>
       </c>
-      <c r="C291" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D291" s="3" t="s">
+      <c r="E291" s="3" t="s">
         <v>1801</v>
       </c>
-      <c r="E291" s="3" t="s">
+      <c r="F291" s="3" t="s">
         <v>1802</v>
       </c>
-      <c r="F291" s="3" t="s">
+      <c r="G291" s="3" t="s">
         <v>1803</v>
       </c>
-      <c r="G291" s="3" t="s">
+      <c r="H291" s="3" t="s">
         <v>1804</v>
-      </c>
-      <c r="H291" s="3" t="s">
-        <v>1805</v>
       </c>
       <c r="I291" s="2" t="s">
         <v>26</v>
@@ -19964,28 +19965,28 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D292" s="3" t="s">
         <v>1806</v>
       </c>
-      <c r="C292" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D292" s="3" t="s">
+      <c r="E292" s="3" t="s">
         <v>1807</v>
       </c>
-      <c r="E292" s="3" t="s">
+      <c r="F292" s="3" t="s">
         <v>1808</v>
       </c>
-      <c r="F292" s="3" t="s">
+      <c r="G292" s="3" t="s">
         <v>1809</v>
       </c>
-      <c r="G292" s="3" t="s">
+      <c r="H292" s="3" t="s">
         <v>1810</v>
       </c>
-      <c r="H292" s="3" t="s">
+      <c r="I292" s="2" t="s">
         <v>1811</v>
-      </c>
-      <c r="I292" s="2" t="s">
-        <v>1812</v>
       </c>
       <c r="J292" s="2" t="s">
         <v>427</v>
@@ -20004,28 +20005,28 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D293" s="3" t="s">
         <v>1813</v>
       </c>
-      <c r="C293" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D293" s="3" t="s">
+      <c r="E293" s="3" t="s">
         <v>1814</v>
       </c>
-      <c r="E293" s="3" t="s">
+      <c r="F293" s="3" t="s">
         <v>1815</v>
       </c>
-      <c r="F293" s="3" t="s">
+      <c r="G293" s="3" t="s">
         <v>1816</v>
       </c>
-      <c r="G293" s="3" t="s">
+      <c r="H293" s="3" t="s">
         <v>1817</v>
       </c>
-      <c r="H293" s="3" t="s">
+      <c r="I293" s="2" t="s">
         <v>1818</v>
-      </c>
-      <c r="I293" s="2" t="s">
-        <v>1819</v>
       </c>
       <c r="J293" s="2" t="s">
         <v>153</v>
@@ -20044,25 +20045,25 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D294" s="3" t="s">
         <v>1820</v>
       </c>
-      <c r="C294" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D294" s="3" t="s">
+      <c r="E294" s="3" t="s">
         <v>1821</v>
       </c>
-      <c r="E294" s="3" t="s">
+      <c r="G294" s="3" t="s">
         <v>1822</v>
       </c>
-      <c r="G294" s="3" t="s">
+      <c r="H294" s="3" t="s">
         <v>1823</v>
       </c>
-      <c r="H294" s="3" t="s">
+      <c r="I294" s="2" t="s">
         <v>1824</v>
-      </c>
-      <c r="I294" s="2" t="s">
-        <v>1825</v>
       </c>
       <c r="J294" s="2" t="s">
         <v>17</v>
@@ -20081,28 +20082,28 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D295" s="3" t="s">
         <v>1826</v>
       </c>
-      <c r="C295" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D295" s="3" t="s">
+      <c r="E295" s="3" t="s">
         <v>1827</v>
       </c>
-      <c r="E295" s="3" t="s">
+      <c r="F295" s="3" t="s">
         <v>1828</v>
-      </c>
-      <c r="F295" s="3" t="s">
-        <v>1829</v>
       </c>
       <c r="G295" s="3">
         <v>0</v>
       </c>
       <c r="H295" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I295" s="2" t="s">
         <v>1830</v>
-      </c>
-      <c r="I295" s="2" t="s">
-        <v>1831</v>
       </c>
       <c r="J295" s="2" t="s">
         <v>126</v>
@@ -20121,26 +20122,26 @@
         <v>295</v>
       </c>
       <c r="B296" s="12" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D296" s="12" t="s">
         <v>1832</v>
       </c>
-      <c r="C296" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D296" s="12" t="s">
+      <c r="E296" s="12" t="s">
         <v>1833</v>
-      </c>
-      <c r="E296" s="12" t="s">
-        <v>1834</v>
       </c>
       <c r="F296" s="12"/>
       <c r="G296" s="12" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H296" s="12" t="s">
         <v>1835</v>
       </c>
-      <c r="H296" s="12" t="s">
+      <c r="I296" s="2" t="s">
         <v>1836</v>
-      </c>
-      <c r="I296" s="2" t="s">
-        <v>1837</v>
       </c>
       <c r="J296" s="11" t="s">
         <v>153</v>
@@ -20171,25 +20172,25 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D297" s="3" t="s">
         <v>1838</v>
       </c>
-      <c r="C297" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D297" s="3" t="s">
+      <c r="E297" s="3" t="s">
         <v>1839</v>
       </c>
-      <c r="E297" s="3" t="s">
+      <c r="G297" s="3" t="s">
         <v>1840</v>
       </c>
-      <c r="G297" s="3" t="s">
+      <c r="H297" s="3" t="s">
         <v>1841</v>
       </c>
-      <c r="H297" s="3" t="s">
+      <c r="I297" s="2" t="s">
         <v>1842</v>
-      </c>
-      <c r="I297" s="2" t="s">
-        <v>1843</v>
       </c>
       <c r="J297" s="2" t="s">
         <v>17</v>
@@ -20208,28 +20209,28 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D298" s="3" t="s">
         <v>1844</v>
       </c>
-      <c r="C298" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D298" s="3" t="s">
+      <c r="E298" s="3" t="s">
         <v>1845</v>
       </c>
-      <c r="E298" s="3" t="s">
+      <c r="F298" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G298" s="3" t="s">
         <v>1846</v>
       </c>
-      <c r="F298" s="3" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G298" s="3" t="s">
+      <c r="H298" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="I298" s="2" t="s">
         <v>1847</v>
-      </c>
-      <c r="H298" s="3" t="s">
-        <v>1818</v>
-      </c>
-      <c r="I298" s="2" t="s">
-        <v>1848</v>
       </c>
       <c r="J298" s="2" t="s">
         <v>126</v>
@@ -20248,28 +20249,28 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>1849</v>
       </c>
-      <c r="C299" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>1850</v>
-      </c>
       <c r="E299" s="3" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F299" s="3" t="s">
         <v>206</v>
       </c>
       <c r="G299" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I299" s="2" t="s">
         <v>1851</v>
-      </c>
-      <c r="H299" s="3" t="s">
-        <v>1560</v>
-      </c>
-      <c r="I299" s="2" t="s">
-        <v>1852</v>
       </c>
       <c r="J299" s="2" t="s">
         <v>27</v>
@@ -20288,28 +20289,28 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D300" s="3" t="s">
         <v>1853</v>
       </c>
-      <c r="C300" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D300" s="3" t="s">
+      <c r="E300" s="3" t="s">
         <v>1854</v>
       </c>
-      <c r="E300" s="3" t="s">
+      <c r="F300" s="3" t="s">
         <v>1855</v>
       </c>
-      <c r="F300" s="3" t="s">
+      <c r="G300" s="3" t="s">
         <v>1856</v>
       </c>
-      <c r="G300" s="3" t="s">
+      <c r="H300" s="3" t="s">
         <v>1857</v>
       </c>
-      <c r="H300" s="3" t="s">
+      <c r="I300" s="2" t="s">
         <v>1858</v>
-      </c>
-      <c r="I300" s="2" t="s">
-        <v>1859</v>
       </c>
       <c r="J300" s="2" t="s">
         <v>126</v>
@@ -20328,25 +20329,25 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D301" s="3" t="s">
         <v>1860</v>
       </c>
-      <c r="C301" t="s">
-        <v>1860</v>
-      </c>
-      <c r="D301" s="3" t="s">
+      <c r="E301" s="3" t="s">
         <v>1861</v>
       </c>
-      <c r="E301" s="3" t="s">
+      <c r="F301" s="3" t="s">
         <v>1862</v>
       </c>
-      <c r="F301" s="3" t="s">
+      <c r="G301" s="3" t="s">
         <v>1863</v>
       </c>
-      <c r="G301" s="3" t="s">
+      <c r="H301" s="3" t="s">
         <v>1864</v>
-      </c>
-      <c r="H301" s="3" t="s">
-        <v>1865</v>
       </c>
       <c r="I301" s="2" t="s">
         <v>26</v>
@@ -20368,28 +20369,28 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D302" s="3" t="s">
         <v>1866</v>
       </c>
-      <c r="C302" t="s">
-        <v>1866</v>
-      </c>
-      <c r="D302" s="3" t="s">
+      <c r="E302" s="3" t="s">
         <v>1867</v>
       </c>
-      <c r="E302" s="3" t="s">
+      <c r="F302" s="3" t="s">
         <v>1868</v>
       </c>
-      <c r="F302" s="3" t="s">
+      <c r="G302" s="3" t="s">
         <v>1869</v>
       </c>
-      <c r="G302" s="3" t="s">
+      <c r="H302" s="3" t="s">
         <v>1870</v>
       </c>
-      <c r="H302" s="3" t="s">
+      <c r="I302" s="2" t="s">
         <v>1871</v>
-      </c>
-      <c r="I302" s="2" t="s">
-        <v>1872</v>
       </c>
       <c r="J302" s="2" t="s">
         <v>27</v>
@@ -20408,22 +20409,22 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D303" s="3" t="s">
         <v>1873</v>
       </c>
-      <c r="C303" t="s">
-        <v>1873</v>
-      </c>
-      <c r="D303" s="3" t="s">
+      <c r="E303" s="3" t="s">
         <v>1874</v>
-      </c>
-      <c r="E303" s="3" t="s">
-        <v>1875</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="I303" s="2" t="s">
         <v>26</v>
@@ -20445,28 +20446,28 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D304" s="3" t="s">
         <v>1877</v>
       </c>
-      <c r="C304" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D304" s="3" t="s">
+      <c r="E304" s="3" t="s">
         <v>1878</v>
       </c>
-      <c r="E304" s="3" t="s">
+      <c r="F304" s="3" t="s">
         <v>1879</v>
       </c>
-      <c r="F304" s="3" t="s">
+      <c r="G304" s="3" t="s">
         <v>1880</v>
       </c>
-      <c r="G304" s="3" t="s">
+      <c r="H304" s="3" t="s">
         <v>1881</v>
       </c>
-      <c r="H304" s="3" t="s">
+      <c r="I304" s="2" t="s">
         <v>1882</v>
-      </c>
-      <c r="I304" s="2" t="s">
-        <v>1883</v>
       </c>
       <c r="J304" s="2" t="s">
         <v>17</v>
@@ -20485,25 +20486,25 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D305" s="3" t="s">
         <v>1884</v>
       </c>
-      <c r="C305" t="s">
-        <v>1884</v>
-      </c>
-      <c r="D305" s="3" t="s">
+      <c r="E305" s="3" t="s">
         <v>1885</v>
       </c>
-      <c r="E305" s="3" t="s">
+      <c r="G305" s="3" t="s">
         <v>1886</v>
       </c>
-      <c r="G305" s="3" t="s">
+      <c r="H305" s="3" t="s">
         <v>1887</v>
       </c>
-      <c r="H305" s="3" t="s">
+      <c r="I305" s="2" t="s">
         <v>1888</v>
-      </c>
-      <c r="I305" s="2" t="s">
-        <v>1889</v>
       </c>
       <c r="J305" s="2" t="s">
         <v>27</v>
@@ -20522,28 +20523,28 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D306" s="3" t="s">
         <v>1890</v>
       </c>
-      <c r="C306" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D306" s="3" t="s">
+      <c r="E306" s="3" t="s">
         <v>1891</v>
       </c>
-      <c r="E306" s="3" t="s">
+      <c r="F306" s="3" t="s">
         <v>1892</v>
       </c>
-      <c r="F306" s="3" t="s">
+      <c r="G306" s="3" t="s">
         <v>1893</v>
       </c>
-      <c r="G306" s="3" t="s">
+      <c r="H306" s="3" t="s">
         <v>1894</v>
       </c>
-      <c r="H306" s="3" t="s">
+      <c r="I306" s="2" t="s">
         <v>1895</v>
-      </c>
-      <c r="I306" s="2" t="s">
-        <v>1896</v>
       </c>
       <c r="J306" s="2" t="s">
         <v>17</v>
@@ -20562,28 +20563,28 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D307" s="3" t="s">
         <v>1897</v>
       </c>
-      <c r="C307" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D307" s="3" t="s">
+      <c r="E307" s="3" t="s">
         <v>1898</v>
-      </c>
-      <c r="E307" s="3" t="s">
-        <v>1899</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>971</v>
       </c>
       <c r="G307" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H307" s="3" t="s">
         <v>1900</v>
       </c>
-      <c r="H307" s="3" t="s">
+      <c r="I307" s="2" t="s">
         <v>1901</v>
-      </c>
-      <c r="I307" s="2" t="s">
-        <v>1902</v>
       </c>
       <c r="J307" s="2" t="s">
         <v>17</v>
@@ -20602,28 +20603,28 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D308" s="3" t="s">
         <v>1903</v>
       </c>
-      <c r="C308" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D308" s="3" t="s">
+      <c r="E308" s="3" t="s">
         <v>1904</v>
       </c>
-      <c r="E308" s="3" t="s">
+      <c r="F308" s="3" t="s">
         <v>1905</v>
       </c>
-      <c r="F308" s="3" t="s">
+      <c r="G308" s="3" t="s">
         <v>1906</v>
       </c>
-      <c r="G308" s="3" t="s">
+      <c r="H308" s="3" t="s">
         <v>1907</v>
       </c>
-      <c r="H308" s="3" t="s">
+      <c r="I308" s="2" t="s">
         <v>1908</v>
-      </c>
-      <c r="I308" s="2" t="s">
-        <v>1909</v>
       </c>
       <c r="J308" s="2" t="s">
         <v>17</v>
@@ -20642,28 +20643,28 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D309" s="3" t="s">
         <v>1910</v>
       </c>
-      <c r="C309" t="s">
-        <v>1910</v>
-      </c>
-      <c r="D309" s="3" t="s">
+      <c r="E309" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G309" s="3" t="s">
         <v>1911</v>
-      </c>
-      <c r="E309" s="3" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F309" s="3" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G309" s="3" t="s">
-        <v>1912</v>
       </c>
       <c r="H309" s="3" t="s">
         <v>1425</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="J309" s="2" t="s">
         <v>17</v>
@@ -20682,28 +20683,28 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D310" s="3" t="s">
         <v>1914</v>
       </c>
-      <c r="C310" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D310" s="3" t="s">
+      <c r="E310" s="3" t="s">
         <v>1915</v>
       </c>
-      <c r="E310" s="3" t="s">
+      <c r="F310" s="3" t="s">
         <v>1916</v>
       </c>
-      <c r="F310" s="3" t="s">
+      <c r="G310" s="3" t="s">
         <v>1917</v>
       </c>
-      <c r="G310" s="3" t="s">
+      <c r="H310" s="3" t="s">
         <v>1918</v>
       </c>
-      <c r="H310" s="3" t="s">
+      <c r="I310" s="2" t="s">
         <v>1919</v>
-      </c>
-      <c r="I310" s="2" t="s">
-        <v>1920</v>
       </c>
       <c r="J310" s="2" t="s">
         <v>17</v>
@@ -20722,13 +20723,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D311" s="3" t="s">
         <v>1921</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1921</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>1922</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>218</v>
@@ -20737,13 +20738,13 @@
         <v>659</v>
       </c>
       <c r="G311" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="H311" s="3" t="s">
         <v>1923</v>
       </c>
-      <c r="H311" s="3" t="s">
+      <c r="I311" s="2" t="s">
         <v>1924</v>
-      </c>
-      <c r="I311" s="2" t="s">
-        <v>1925</v>
       </c>
       <c r="J311" s="2" t="s">
         <v>17</v>
@@ -20762,28 +20763,28 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D312" s="3" t="s">
         <v>1926</v>
       </c>
-      <c r="C312" t="s">
-        <v>1926</v>
-      </c>
-      <c r="D312" s="3" t="s">
+      <c r="E312" s="3" t="s">
         <v>1927</v>
       </c>
-      <c r="E312" s="3" t="s">
+      <c r="G312" s="3" t="s">
         <v>1928</v>
       </c>
-      <c r="G312" s="3" t="s">
+      <c r="H312" s="3" t="s">
         <v>1929</v>
       </c>
-      <c r="H312" s="3" t="s">
+      <c r="I312" s="2" t="s">
         <v>1930</v>
       </c>
-      <c r="I312" s="2" t="s">
-        <v>1931</v>
-      </c>
       <c r="J312" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="K312" s="3" t="s">
         <v>35</v>
@@ -20799,25 +20800,25 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D313" s="3" t="s">
         <v>1932</v>
       </c>
-      <c r="C313" t="s">
-        <v>1932</v>
-      </c>
-      <c r="D313" s="3" t="s">
+      <c r="E313" s="3" t="s">
         <v>1933</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>1934</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>393</v>
       </c>
       <c r="G313" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H313" s="3" t="s">
         <v>1935</v>
-      </c>
-      <c r="H313" s="3" t="s">
-        <v>1936</v>
       </c>
       <c r="I313" s="2" t="s">
         <v>26</v>
@@ -20839,28 +20840,28 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D314" s="3" t="s">
         <v>1937</v>
       </c>
-      <c r="C314" t="s">
-        <v>1937</v>
-      </c>
-      <c r="D314" s="3" t="s">
+      <c r="E314" s="3" t="s">
         <v>1938</v>
       </c>
-      <c r="E314" s="3" t="s">
+      <c r="F314" s="3" t="s">
         <v>1939</v>
       </c>
-      <c r="F314" s="3" t="s">
+      <c r="G314" s="3" t="s">
         <v>1940</v>
       </c>
-      <c r="G314" s="3" t="s">
+      <c r="H314" s="3" t="s">
         <v>1941</v>
       </c>
-      <c r="H314" s="3" t="s">
+      <c r="I314" s="2" t="s">
         <v>1942</v>
-      </c>
-      <c r="I314" s="2" t="s">
-        <v>1943</v>
       </c>
       <c r="J314" s="2" t="s">
         <v>17</v>
@@ -20879,28 +20880,28 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D315" s="3" t="s">
         <v>1944</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1944</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>1945</v>
       </c>
       <c r="E315" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F315" s="3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="G315" s="3" t="s">
         <v>1946</v>
       </c>
-      <c r="G315" s="3" t="s">
+      <c r="H315" s="3" t="s">
         <v>1947</v>
       </c>
-      <c r="H315" s="3" t="s">
+      <c r="I315" s="2" t="s">
         <v>1948</v>
-      </c>
-      <c r="I315" s="2" t="s">
-        <v>1949</v>
       </c>
       <c r="J315" s="2" t="s">
         <v>243</v>
@@ -20919,28 +20920,28 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D316" s="3" t="s">
         <v>1950</v>
       </c>
-      <c r="C316" t="s">
-        <v>1950</v>
-      </c>
-      <c r="D316" s="3" t="s">
+      <c r="E316" s="3" t="s">
         <v>1951</v>
-      </c>
-      <c r="E316" s="3" t="s">
-        <v>1952</v>
       </c>
       <c r="F316" s="3" t="s">
         <v>393</v>
       </c>
       <c r="G316" s="3" t="s">
+        <v>1952</v>
+      </c>
+      <c r="H316" s="3" t="s">
         <v>1953</v>
       </c>
-      <c r="H316" s="3" t="s">
+      <c r="I316" s="2" t="s">
         <v>1954</v>
-      </c>
-      <c r="I316" s="2" t="s">
-        <v>1955</v>
       </c>
       <c r="J316" s="2" t="s">
         <v>17</v>
@@ -20959,28 +20960,28 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D317" s="3" t="s">
         <v>1956</v>
       </c>
-      <c r="C317" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D317" s="3" t="s">
+      <c r="E317" s="3" t="s">
         <v>1957</v>
-      </c>
-      <c r="E317" s="3" t="s">
-        <v>1958</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>150</v>
       </c>
       <c r="G317" s="3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H317" s="3" t="s">
         <v>1959</v>
       </c>
-      <c r="H317" s="3" t="s">
+      <c r="I317" s="2" t="s">
         <v>1960</v>
-      </c>
-      <c r="I317" s="2" t="s">
-        <v>1961</v>
       </c>
       <c r="J317" s="2" t="s">
         <v>243</v>
@@ -20999,28 +21000,28 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D318" s="3" t="s">
         <v>1962</v>
       </c>
-      <c r="C318" t="s">
-        <v>1962</v>
-      </c>
-      <c r="D318" s="3" t="s">
+      <c r="E318" s="3" t="s">
         <v>1963</v>
       </c>
-      <c r="E318" s="3" t="s">
+      <c r="F318" s="3" t="s">
         <v>1964</v>
       </c>
-      <c r="F318" s="3" t="s">
+      <c r="G318" s="3" t="s">
         <v>1965</v>
       </c>
-      <c r="G318" s="3" t="s">
+      <c r="H318" s="3" t="s">
         <v>1966</v>
       </c>
-      <c r="H318" s="3" t="s">
+      <c r="I318" s="2" t="s">
         <v>1967</v>
-      </c>
-      <c r="I318" s="2" t="s">
-        <v>1968</v>
       </c>
       <c r="J318" s="2" t="s">
         <v>243</v>
@@ -21039,28 +21040,28 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D319" s="3" t="s">
         <v>1969</v>
       </c>
-      <c r="C319" t="s">
-        <v>1969</v>
-      </c>
-      <c r="D319" s="3" t="s">
+      <c r="E319" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="G319" s="3" t="s">
         <v>1970</v>
       </c>
-      <c r="E319" s="3" t="s">
-        <v>1651</v>
-      </c>
-      <c r="F319" s="3" t="s">
-        <v>1652</v>
-      </c>
-      <c r="G319" s="3" t="s">
+      <c r="H319" s="3" t="s">
         <v>1971</v>
       </c>
-      <c r="H319" s="3" t="s">
+      <c r="I319" s="2" t="s">
         <v>1972</v>
-      </c>
-      <c r="I319" s="2" t="s">
-        <v>1973</v>
       </c>
       <c r="J319" s="2" t="s">
         <v>153</v>
@@ -21079,13 +21080,13 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D320" s="3" t="s">
         <v>1974</v>
-      </c>
-      <c r="C320" t="s">
-        <v>1974</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>1975</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>400</v>
@@ -21094,13 +21095,13 @@
         <v>206</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="H320" s="3" t="s">
         <v>402</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="J320" s="2" t="s">
         <v>17</v>
@@ -21119,25 +21120,25 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D321" s="3" t="s">
         <v>1978</v>
       </c>
-      <c r="C321" t="s">
-        <v>1978</v>
-      </c>
-      <c r="D321" s="3" t="s">
+      <c r="E321" s="3" t="s">
         <v>1979</v>
       </c>
-      <c r="E321" s="3" t="s">
+      <c r="G321" s="3" t="s">
         <v>1980</v>
       </c>
-      <c r="G321" s="3" t="s">
+      <c r="H321" s="3" t="s">
         <v>1981</v>
       </c>
-      <c r="H321" s="3" t="s">
+      <c r="I321" s="2" t="s">
         <v>1982</v>
-      </c>
-      <c r="I321" s="2" t="s">
-        <v>1983</v>
       </c>
       <c r="J321" s="2" t="s">
         <v>17</v>
@@ -21156,25 +21157,25 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D322" s="3" t="s">
         <v>1984</v>
       </c>
-      <c r="C322" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D322" s="3" t="s">
+      <c r="E322" s="3" t="s">
         <v>1985</v>
       </c>
-      <c r="E322" s="3" t="s">
+      <c r="G322" s="3" t="s">
         <v>1986</v>
       </c>
-      <c r="G322" s="3" t="s">
+      <c r="H322" s="3" t="s">
         <v>1987</v>
       </c>
-      <c r="H322" s="3" t="s">
+      <c r="I322" s="2" t="s">
         <v>1988</v>
-      </c>
-      <c r="I322" s="2" t="s">
-        <v>1989</v>
       </c>
       <c r="J322" s="2" t="s">
         <v>17</v>
@@ -21193,28 +21194,28 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D323" s="3" t="s">
         <v>1990</v>
       </c>
-      <c r="C323" t="s">
-        <v>1990</v>
-      </c>
-      <c r="D323" s="3" t="s">
+      <c r="E323" s="3" t="s">
         <v>1991</v>
-      </c>
-      <c r="E323" s="3" t="s">
-        <v>1992</v>
       </c>
       <c r="F323" s="3" t="s">
         <v>206</v>
       </c>
       <c r="G323" s="3" t="s">
+        <v>1992</v>
+      </c>
+      <c r="H323" s="3" t="s">
         <v>1993</v>
       </c>
-      <c r="H323" s="3" t="s">
+      <c r="I323" s="2" t="s">
         <v>1994</v>
-      </c>
-      <c r="I323" s="2" t="s">
-        <v>1995</v>
       </c>
       <c r="J323" s="2" t="s">
         <v>243</v>
@@ -21233,31 +21234,31 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D324" s="3" t="s">
         <v>1996</v>
       </c>
-      <c r="C324" t="s">
-        <v>1996</v>
-      </c>
-      <c r="D324" s="3" t="s">
+      <c r="E324" s="3" t="s">
         <v>1997</v>
-      </c>
-      <c r="E324" s="3" t="s">
-        <v>1998</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>971</v>
       </c>
       <c r="G324" s="3" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H324" s="3" t="s">
         <v>1999</v>
       </c>
-      <c r="H324" s="3" t="s">
+      <c r="I324" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="I324" s="2" t="s">
+      <c r="J324" s="2" t="s">
         <v>2001</v>
-      </c>
-      <c r="J324" s="2" t="s">
-        <v>2002</v>
       </c>
       <c r="K324" s="3" t="s">
         <v>35</v>
@@ -21273,22 +21274,22 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C325" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D325" s="3" t="s">
         <v>2003</v>
       </c>
-      <c r="C325" t="s">
-        <v>2003</v>
-      </c>
-      <c r="D325" s="3" t="s">
+      <c r="E325" s="3" t="s">
         <v>2004</v>
       </c>
-      <c r="E325" s="3" t="s">
+      <c r="G325" s="3" t="s">
         <v>2005</v>
       </c>
-      <c r="G325" s="3" t="s">
+      <c r="H325" s="3" t="s">
         <v>2006</v>
-      </c>
-      <c r="H325" s="3" t="s">
-        <v>2007</v>
       </c>
       <c r="I325" s="2" t="s">
         <v>26</v>
@@ -21310,28 +21311,28 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D326" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="C326" t="s">
-        <v>2008</v>
-      </c>
-      <c r="D326" s="3" t="s">
+      <c r="E326" s="3" t="s">
         <v>2009</v>
       </c>
-      <c r="E326" s="3" t="s">
+      <c r="F326" s="3" t="s">
         <v>2010</v>
       </c>
-      <c r="F326" s="3" t="s">
+      <c r="G326" s="3" t="s">
         <v>2011</v>
       </c>
-      <c r="G326" s="3" t="s">
+      <c r="H326" s="3" t="s">
         <v>2012</v>
       </c>
-      <c r="H326" s="3" t="s">
+      <c r="I326" s="2" t="s">
         <v>2013</v>
-      </c>
-      <c r="I326" s="2" t="s">
-        <v>2014</v>
       </c>
       <c r="J326" s="2" t="s">
         <v>17</v>
@@ -21350,25 +21351,25 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C327" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D327" s="3" t="s">
         <v>2015</v>
       </c>
-      <c r="C327" t="s">
-        <v>2015</v>
-      </c>
-      <c r="D327" s="3" t="s">
+      <c r="E327" s="3" t="s">
         <v>2016</v>
       </c>
-      <c r="E327" s="3" t="s">
+      <c r="G327" s="3" t="s">
         <v>2017</v>
       </c>
-      <c r="G327" s="3" t="s">
+      <c r="H327" s="3" t="s">
         <v>2018</v>
       </c>
-      <c r="H327" s="3" t="s">
+      <c r="I327" s="2" t="s">
         <v>2019</v>
-      </c>
-      <c r="I327" s="2" t="s">
-        <v>2020</v>
       </c>
       <c r="J327" s="2" t="s">
         <v>17</v>
@@ -21387,25 +21388,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C328" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D328" s="3" t="s">
         <v>2021</v>
       </c>
-      <c r="C328" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D328" s="3" t="s">
+      <c r="E328" s="3" t="s">
         <v>2022</v>
       </c>
-      <c r="E328" s="3" t="s">
+      <c r="G328" s="3" t="s">
         <v>2023</v>
       </c>
-      <c r="G328" s="3" t="s">
+      <c r="H328" s="3" t="s">
         <v>2024</v>
       </c>
-      <c r="H328" s="3" t="s">
+      <c r="I328" s="2" t="s">
         <v>2025</v>
-      </c>
-      <c r="I328" s="2" t="s">
-        <v>2026</v>
       </c>
       <c r="J328" s="2" t="s">
         <v>821</v>
@@ -21424,13 +21425,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C329" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D329" s="3" t="s">
         <v>2027</v>
-      </c>
-      <c r="C329" t="s">
-        <v>2027</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>2028</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>258</v>
@@ -21439,13 +21440,13 @@
         <v>373</v>
       </c>
       <c r="G329" s="3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H329" s="3" t="s">
         <v>2029</v>
       </c>
-      <c r="H329" s="3" t="s">
+      <c r="I329" s="2" t="s">
         <v>2030</v>
-      </c>
-      <c r="I329" s="2" t="s">
-        <v>2031</v>
       </c>
       <c r="J329" s="2" t="s">
         <v>153</v>
@@ -21464,28 +21465,28 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C330" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D330" s="3" t="s">
         <v>2032</v>
       </c>
-      <c r="C330" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D330" s="3" t="s">
+      <c r="E330" s="3" t="s">
         <v>2033</v>
       </c>
-      <c r="E330" s="3" t="s">
+      <c r="F330" s="3" t="s">
         <v>2034</v>
       </c>
-      <c r="F330" s="3" t="s">
+      <c r="G330" s="3" t="s">
         <v>2035</v>
       </c>
-      <c r="G330" s="3" t="s">
+      <c r="H330" s="3" t="s">
         <v>2036</v>
       </c>
-      <c r="H330" s="3" t="s">
+      <c r="I330" s="2" t="s">
         <v>2037</v>
-      </c>
-      <c r="I330" s="2" t="s">
-        <v>2038</v>
       </c>
       <c r="J330" s="2" t="s">
         <v>293</v>
@@ -21504,28 +21505,28 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C331" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D331" s="3" t="s">
         <v>2039</v>
       </c>
-      <c r="C331" t="s">
-        <v>2039</v>
-      </c>
-      <c r="D331" s="3" t="s">
+      <c r="E331" s="3" t="s">
         <v>2040</v>
       </c>
-      <c r="E331" s="3" t="s">
+      <c r="F331" s="3" t="s">
         <v>2041</v>
       </c>
-      <c r="F331" s="3" t="s">
+      <c r="G331" s="3" t="s">
         <v>2042</v>
       </c>
-      <c r="G331" s="3" t="s">
+      <c r="H331" s="3" t="s">
         <v>2043</v>
       </c>
-      <c r="H331" s="3" t="s">
+      <c r="I331" s="2" t="s">
         <v>2044</v>
-      </c>
-      <c r="I331" s="2" t="s">
-        <v>2045</v>
       </c>
       <c r="J331" s="2" t="s">
         <v>243</v>
@@ -21544,28 +21545,28 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C332" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D332" s="3" t="s">
         <v>2046</v>
       </c>
-      <c r="C332" t="s">
-        <v>2046</v>
-      </c>
-      <c r="D332" s="3" t="s">
+      <c r="E332" s="3" t="s">
         <v>2047</v>
-      </c>
-      <c r="E332" s="3" t="s">
-        <v>2048</v>
       </c>
       <c r="F332" s="3" t="s">
         <v>266</v>
       </c>
       <c r="G332" s="3" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H332" s="3" t="s">
         <v>2049</v>
       </c>
-      <c r="H332" s="3" t="s">
+      <c r="I332" s="2" t="s">
         <v>2050</v>
-      </c>
-      <c r="I332" s="2" t="s">
-        <v>2051</v>
       </c>
       <c r="J332" s="2" t="s">
         <v>17</v>
@@ -21584,25 +21585,25 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C333" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D333" s="3" t="s">
         <v>2052</v>
-      </c>
-      <c r="C333" t="s">
-        <v>2052</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>2053</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>1148</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="H333" s="3" t="s">
         <v>1150</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="J333" s="2" t="s">
         <v>17</v>
@@ -21621,28 +21622,28 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C334" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D334" s="3" t="s">
         <v>2056</v>
       </c>
-      <c r="C334" t="s">
-        <v>2056</v>
-      </c>
-      <c r="D334" s="3" t="s">
+      <c r="E334" s="3" t="s">
         <v>2057</v>
       </c>
-      <c r="E334" s="3" t="s">
+      <c r="F334" s="3" t="s">
         <v>2058</v>
       </c>
-      <c r="F334" s="3" t="s">
+      <c r="G334" s="3" t="s">
         <v>2059</v>
       </c>
-      <c r="G334" s="3" t="s">
+      <c r="H334" s="3" t="s">
         <v>2060</v>
       </c>
-      <c r="H334" s="3" t="s">
+      <c r="I334" s="2" t="s">
         <v>2061</v>
-      </c>
-      <c r="I334" s="2" t="s">
-        <v>2062</v>
       </c>
       <c r="J334" s="2" t="s">
         <v>17</v>
@@ -21661,28 +21662,28 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C335" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D335" s="3" t="s">
         <v>2063</v>
       </c>
-      <c r="C335" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D335" s="3" t="s">
+      <c r="E335" s="3" t="s">
         <v>2064</v>
       </c>
-      <c r="E335" s="3" t="s">
+      <c r="F335" s="3" t="s">
         <v>2065</v>
       </c>
-      <c r="F335" s="3" t="s">
+      <c r="G335" s="3" t="s">
         <v>2066</v>
       </c>
-      <c r="G335" s="3" t="s">
+      <c r="H335" s="3" t="s">
         <v>2067</v>
       </c>
-      <c r="H335" s="3" t="s">
+      <c r="I335" s="2" t="s">
         <v>2068</v>
-      </c>
-      <c r="I335" s="2" t="s">
-        <v>2069</v>
       </c>
       <c r="J335" s="2" t="s">
         <v>561</v>
@@ -21701,22 +21702,22 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C336" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D336" s="3" t="s">
         <v>2070</v>
       </c>
-      <c r="C336" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D336" s="3" t="s">
+      <c r="E336" s="3" t="s">
         <v>2071</v>
       </c>
-      <c r="E336" s="3" t="s">
+      <c r="F336" s="3" t="s">
         <v>2072</v>
       </c>
-      <c r="F336" s="3" t="s">
+      <c r="G336" s="3" t="s">
         <v>2073</v>
-      </c>
-      <c r="G336" s="3" t="s">
-        <v>2074</v>
       </c>
       <c r="H336" s="3" t="s">
         <v>25</v>
@@ -21741,28 +21742,28 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C337" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D337" s="3" t="s">
         <v>2075</v>
       </c>
-      <c r="C337" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D337" s="3" t="s">
+      <c r="E337" s="3" t="s">
         <v>2076</v>
-      </c>
-      <c r="E337" s="3" t="s">
-        <v>2077</v>
       </c>
       <c r="F337" s="3" t="s">
         <v>206</v>
       </c>
       <c r="G337" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H337" s="3" t="s">
         <v>2078</v>
       </c>
-      <c r="H337" s="3" t="s">
+      <c r="I337" s="2" t="s">
         <v>2079</v>
-      </c>
-      <c r="I337" s="2" t="s">
-        <v>2080</v>
       </c>
       <c r="J337" s="2" t="s">
         <v>85</v>
@@ -21781,25 +21782,25 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C338" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D338" s="3" t="s">
         <v>2081</v>
       </c>
-      <c r="C338" t="s">
-        <v>2081</v>
-      </c>
-      <c r="D338" s="3" t="s">
+      <c r="E338" s="3" t="s">
         <v>2082</v>
       </c>
-      <c r="E338" s="3" t="s">
+      <c r="F338" s="3" t="s">
         <v>2083</v>
       </c>
-      <c r="F338" s="3" t="s">
+      <c r="G338" s="3" t="s">
         <v>2084</v>
       </c>
-      <c r="G338" s="3" t="s">
+      <c r="H338" s="3" t="s">
         <v>2085</v>
-      </c>
-      <c r="H338" s="3" t="s">
-        <v>2086</v>
       </c>
       <c r="I338" s="2" t="s">
         <v>26</v>
@@ -21821,25 +21822,25 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C339" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D339" s="3" t="s">
         <v>2087</v>
-      </c>
-      <c r="C339" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>2088</v>
       </c>
       <c r="E339" s="3" t="s">
         <v>405</v>
       </c>
       <c r="F339" s="3" t="s">
+        <v>2088</v>
+      </c>
+      <c r="G339" s="3" t="s">
         <v>2089</v>
       </c>
-      <c r="G339" s="3" t="s">
+      <c r="H339" s="3" t="s">
         <v>2090</v>
-      </c>
-      <c r="H339" s="3" t="s">
-        <v>2091</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>26</v>
@@ -21861,28 +21862,28 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C340" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D340" s="3" t="s">
         <v>2092</v>
       </c>
-      <c r="C340" t="s">
-        <v>2092</v>
-      </c>
-      <c r="D340" s="3" t="s">
+      <c r="E340" s="3" t="s">
         <v>2093</v>
       </c>
-      <c r="E340" s="3" t="s">
+      <c r="F340" s="3" t="s">
         <v>2094</v>
       </c>
-      <c r="F340" s="3" t="s">
+      <c r="G340" s="3" t="s">
         <v>2095</v>
       </c>
-      <c r="G340" s="3" t="s">
+      <c r="H340" s="3" t="s">
         <v>2096</v>
       </c>
-      <c r="H340" s="3" t="s">
+      <c r="I340" s="2" t="s">
         <v>2097</v>
-      </c>
-      <c r="I340" s="2" t="s">
-        <v>2098</v>
       </c>
       <c r="J340" s="2" t="s">
         <v>27</v>
@@ -21901,28 +21902,28 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C341" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D341" s="3" t="s">
         <v>2099</v>
       </c>
-      <c r="C341" t="s">
-        <v>2099</v>
-      </c>
-      <c r="D341" s="3" t="s">
+      <c r="E341" s="3" t="s">
         <v>2100</v>
       </c>
-      <c r="E341" s="3" t="s">
+      <c r="F341" s="3" t="s">
         <v>2101</v>
       </c>
-      <c r="F341" s="3" t="s">
+      <c r="G341" s="3" t="s">
         <v>2102</v>
       </c>
-      <c r="G341" s="3" t="s">
+      <c r="H341" s="3" t="s">
         <v>2103</v>
       </c>
-      <c r="H341" s="3" t="s">
+      <c r="I341" s="2" t="s">
         <v>2104</v>
-      </c>
-      <c r="I341" s="2" t="s">
-        <v>2105</v>
       </c>
       <c r="J341" s="2" t="s">
         <v>506</v>
@@ -21941,25 +21942,25 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C342" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D342" s="3" t="s">
         <v>2106</v>
       </c>
-      <c r="C342" t="s">
-        <v>2106</v>
-      </c>
-      <c r="D342" s="3" t="s">
+      <c r="E342" s="3" t="s">
         <v>2107</v>
       </c>
-      <c r="E342" s="3" t="s">
+      <c r="F342" s="3" t="s">
         <v>2108</v>
       </c>
-      <c r="F342" s="3" t="s">
+      <c r="G342" s="3" t="s">
         <v>2109</v>
       </c>
-      <c r="G342" s="3" t="s">
+      <c r="H342" s="3" t="s">
         <v>2110</v>
-      </c>
-      <c r="H342" s="3" t="s">
-        <v>2111</v>
       </c>
       <c r="I342" s="2" t="s">
         <v>1302</v>
@@ -21981,22 +21982,22 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C343" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D343" s="3" t="s">
         <v>2112</v>
       </c>
-      <c r="C343" t="s">
-        <v>2112</v>
-      </c>
-      <c r="D343" s="3" t="s">
+      <c r="E343" s="3" t="s">
         <v>2113</v>
       </c>
-      <c r="E343" s="3" t="s">
+      <c r="G343" s="3" t="s">
         <v>2114</v>
       </c>
-      <c r="G343" s="3" t="s">
+      <c r="H343" s="3" t="s">
         <v>2115</v>
-      </c>
-      <c r="H343" s="3" t="s">
-        <v>2116</v>
       </c>
       <c r="I343" s="2" t="s">
         <v>1031</v>
@@ -22018,25 +22019,25 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D344" s="3" t="s">
         <v>2117</v>
       </c>
-      <c r="C344" t="s">
-        <v>2117</v>
-      </c>
-      <c r="D344" s="3" t="s">
+      <c r="E344" s="3" t="s">
         <v>2118</v>
       </c>
-      <c r="E344" s="3" t="s">
+      <c r="G344" s="3" t="s">
         <v>2119</v>
       </c>
-      <c r="G344" s="3" t="s">
+      <c r="H344" s="3" t="s">
         <v>2120</v>
       </c>
-      <c r="H344" s="3" t="s">
+      <c r="I344" s="2" t="s">
         <v>2121</v>
-      </c>
-      <c r="I344" s="2" t="s">
-        <v>2122</v>
       </c>
       <c r="J344" s="2" t="s">
         <v>243</v>
@@ -22055,25 +22056,25 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C345" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D345" s="3" t="s">
         <v>2123</v>
       </c>
-      <c r="C345" t="s">
-        <v>2123</v>
-      </c>
-      <c r="D345" s="3" t="s">
+      <c r="E345" s="3" t="s">
         <v>2124</v>
       </c>
-      <c r="E345" s="3" t="s">
+      <c r="G345" s="3" t="s">
         <v>2125</v>
       </c>
-      <c r="G345" s="3" t="s">
+      <c r="H345" s="3" t="s">
         <v>2126</v>
       </c>
-      <c r="H345" s="3" t="s">
+      <c r="I345" s="2" t="s">
         <v>2127</v>
-      </c>
-      <c r="I345" s="2" t="s">
-        <v>2128</v>
       </c>
       <c r="J345" s="2" t="s">
         <v>17</v>
@@ -22092,25 +22093,25 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C346" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D346" s="3" t="s">
         <v>2129</v>
       </c>
-      <c r="C346" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D346" s="3" t="s">
+      <c r="E346" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="E346" s="3" t="s">
+      <c r="G346" s="3" t="s">
         <v>2131</v>
       </c>
-      <c r="G346" s="3" t="s">
+      <c r="H346" s="3" t="s">
         <v>2132</v>
       </c>
-      <c r="H346" s="3" t="s">
+      <c r="I346" s="2" t="s">
         <v>2133</v>
-      </c>
-      <c r="I346" s="2" t="s">
-        <v>2134</v>
       </c>
       <c r="J346" s="2" t="s">
         <v>17</v>
@@ -22129,25 +22130,25 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C347" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D347" s="3" t="s">
         <v>2135</v>
       </c>
-      <c r="C347" t="s">
-        <v>2135</v>
-      </c>
-      <c r="D347" s="3" t="s">
+      <c r="E347" s="3" t="s">
         <v>2136</v>
       </c>
-      <c r="E347" s="3" t="s">
+      <c r="F347" s="3" t="s">
         <v>2137</v>
       </c>
-      <c r="F347" s="3" t="s">
+      <c r="G347" s="3" t="s">
         <v>2138</v>
       </c>
-      <c r="G347" s="3" t="s">
+      <c r="H347" s="3" t="s">
         <v>2139</v>
-      </c>
-      <c r="H347" s="3" t="s">
-        <v>2140</v>
       </c>
       <c r="I347" s="2" t="s">
         <v>1210</v>
@@ -22169,28 +22170,28 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C348" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D348" s="3" t="s">
         <v>2141</v>
       </c>
-      <c r="C348" t="s">
-        <v>2141</v>
-      </c>
-      <c r="D348" s="3" t="s">
+      <c r="E348" s="3" t="s">
         <v>2142</v>
       </c>
-      <c r="E348" s="3" t="s">
+      <c r="F348" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G348" s="3" t="s">
         <v>2143</v>
       </c>
-      <c r="F348" s="3" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G348" s="3" t="s">
+      <c r="H348" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="I348" s="2" t="s">
         <v>2144</v>
-      </c>
-      <c r="H348" s="3" t="s">
-        <v>1818</v>
-      </c>
-      <c r="I348" s="2" t="s">
-        <v>2145</v>
       </c>
       <c r="J348" s="2" t="s">
         <v>27</v>
@@ -22209,25 +22210,25 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C349" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D349" s="3" t="s">
         <v>2146</v>
-      </c>
-      <c r="C349" t="s">
-        <v>2146</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>2147</v>
       </c>
       <c r="E349" s="3" t="s">
         <v>218</v>
       </c>
       <c r="G349" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="H349" s="3" t="s">
         <v>2148</v>
       </c>
-      <c r="H349" s="3" t="s">
+      <c r="I349" s="2" t="s">
         <v>2149</v>
-      </c>
-      <c r="I349" s="2" t="s">
-        <v>2150</v>
       </c>
       <c r="J349" s="2" t="s">
         <v>27</v>
@@ -22246,13 +22247,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C350" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D350" s="3" t="s">
         <v>2151</v>
-      </c>
-      <c r="C350" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>2152</v>
       </c>
       <c r="E350" s="3" t="s">
         <v>218</v>
@@ -22261,13 +22262,13 @@
         <v>659</v>
       </c>
       <c r="G350" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="H350" s="3" t="s">
         <v>2153</v>
       </c>
-      <c r="H350" s="3" t="s">
+      <c r="I350" s="2" t="s">
         <v>2154</v>
-      </c>
-      <c r="I350" s="2" t="s">
-        <v>2155</v>
       </c>
       <c r="J350" s="2" t="s">
         <v>17</v>
@@ -22286,25 +22287,25 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C351" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D351" s="3" t="s">
         <v>2156</v>
       </c>
-      <c r="C351" t="s">
-        <v>2156</v>
-      </c>
-      <c r="D351" s="3" t="s">
+      <c r="E351" s="3" t="s">
         <v>2157</v>
       </c>
-      <c r="E351" s="3" t="s">
+      <c r="G351" s="3" t="s">
         <v>2158</v>
       </c>
-      <c r="G351" s="3" t="s">
+      <c r="H351" s="3" t="s">
         <v>2159</v>
       </c>
-      <c r="H351" s="3" t="s">
+      <c r="I351" s="2" t="s">
         <v>2160</v>
-      </c>
-      <c r="I351" s="2" t="s">
-        <v>2161</v>
       </c>
       <c r="J351" s="2" t="s">
         <v>17</v>
@@ -22323,31 +22324,31 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C352" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D352" s="3" t="s">
         <v>2162</v>
       </c>
-      <c r="C352" t="s">
-        <v>2162</v>
-      </c>
-      <c r="D352" s="3" t="s">
+      <c r="E352" s="3" t="s">
         <v>2163</v>
       </c>
-      <c r="E352" s="3" t="s">
+      <c r="F352" s="3" t="s">
         <v>2164</v>
       </c>
-      <c r="F352" s="3" t="s">
+      <c r="G352" s="3" t="s">
         <v>2165</v>
       </c>
-      <c r="G352" s="3" t="s">
+      <c r="H352" s="3" t="s">
         <v>2166</v>
       </c>
-      <c r="H352" s="3" t="s">
+      <c r="I352" s="2" t="s">
         <v>2167</v>
       </c>
-      <c r="I352" s="2" t="s">
+      <c r="J352" s="2" t="s">
         <v>2168</v>
-      </c>
-      <c r="J352" s="2" t="s">
-        <v>2169</v>
       </c>
       <c r="K352" s="3" t="s">
         <v>35</v>
@@ -22363,25 +22364,25 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C353" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D353" s="3" t="s">
         <v>2170</v>
       </c>
-      <c r="C353" t="s">
-        <v>2170</v>
-      </c>
-      <c r="D353" s="3" t="s">
+      <c r="E353" s="3" t="s">
         <v>2171</v>
       </c>
-      <c r="E353" s="3" t="s">
+      <c r="G353" s="3" t="s">
         <v>2172</v>
       </c>
-      <c r="G353" s="3" t="s">
+      <c r="H353" s="3" t="s">
         <v>2173</v>
       </c>
-      <c r="H353" s="3" t="s">
+      <c r="I353" s="2" t="s">
         <v>2174</v>
-      </c>
-      <c r="I353" s="2" t="s">
-        <v>2175</v>
       </c>
       <c r="J353" s="2" t="s">
         <v>17</v>
@@ -22400,25 +22401,25 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C354" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D354" s="3" t="s">
         <v>2176</v>
       </c>
-      <c r="C354" t="s">
-        <v>2176</v>
-      </c>
-      <c r="D354" s="3" t="s">
+      <c r="E354" s="3" t="s">
         <v>2177</v>
       </c>
-      <c r="E354" s="3" t="s">
+      <c r="G354" s="3" t="s">
         <v>2178</v>
       </c>
-      <c r="G354" s="3" t="s">
+      <c r="H354" s="3" t="s">
         <v>2179</v>
       </c>
-      <c r="H354" s="3" t="s">
+      <c r="I354" s="2" t="s">
         <v>2180</v>
-      </c>
-      <c r="I354" s="2" t="s">
-        <v>2181</v>
       </c>
       <c r="J354" s="2" t="s">
         <v>85</v>
@@ -22437,28 +22438,28 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C355" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D355" s="3" t="s">
         <v>2182</v>
-      </c>
-      <c r="C355" t="s">
-        <v>2182</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>2183</v>
       </c>
       <c r="E355" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="F355" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G355" s="3" t="s">
         <v>2184</v>
       </c>
-      <c r="G355" s="3" t="s">
+      <c r="H355" s="3" t="s">
         <v>2185</v>
       </c>
-      <c r="H355" s="3" t="s">
+      <c r="I355" s="2" t="s">
         <v>2186</v>
-      </c>
-      <c r="I355" s="2" t="s">
-        <v>2187</v>
       </c>
       <c r="J355" s="2" t="s">
         <v>153</v>
@@ -22477,13 +22478,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C356" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D356" s="3" t="s">
         <v>2188</v>
-      </c>
-      <c r="C356" t="s">
-        <v>2188</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>2189</v>
       </c>
       <c r="E356" s="3" t="s">
         <v>1405</v>
@@ -22492,13 +22493,13 @@
         <v>206</v>
       </c>
       <c r="G356" s="3" t="s">
+        <v>2189</v>
+      </c>
+      <c r="H356" s="3" t="s">
         <v>2190</v>
       </c>
-      <c r="H356" s="3" t="s">
+      <c r="I356" s="2" t="s">
         <v>2191</v>
-      </c>
-      <c r="I356" s="2" t="s">
-        <v>2192</v>
       </c>
       <c r="J356" s="2" t="s">
         <v>17</v>
@@ -22517,28 +22518,28 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C357" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D357" s="3" t="s">
         <v>2193</v>
-      </c>
-      <c r="C357" t="s">
-        <v>2193</v>
-      </c>
-      <c r="D357" s="3" t="s">
-        <v>2194</v>
       </c>
       <c r="E357" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G357" s="3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="H357" s="3" t="s">
         <v>2195</v>
       </c>
-      <c r="H357" s="3" t="s">
+      <c r="I357" s="2" t="s">
         <v>2196</v>
       </c>
-      <c r="I357" s="2" t="s">
-        <v>2197</v>
-      </c>
       <c r="J357" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="K357" s="3" t="s">
         <v>35</v>
@@ -22554,25 +22555,25 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C358" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D358" s="3" t="s">
         <v>2198</v>
       </c>
-      <c r="C358" t="s">
-        <v>2198</v>
-      </c>
-      <c r="D358" s="3" t="s">
+      <c r="E358" s="3" t="s">
         <v>2199</v>
       </c>
-      <c r="E358" s="3" t="s">
+      <c r="F358" s="3" t="s">
         <v>2200</v>
-      </c>
-      <c r="F358" s="3" t="s">
-        <v>2201</v>
       </c>
       <c r="G358" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="I358" s="2" t="s">
         <v>26</v>
@@ -22594,28 +22595,28 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C359" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D359" s="3" t="s">
         <v>2203</v>
       </c>
-      <c r="C359" t="s">
-        <v>2203</v>
-      </c>
-      <c r="D359" s="3" t="s">
+      <c r="E359" s="3" t="s">
         <v>2204</v>
       </c>
-      <c r="E359" s="3" t="s">
+      <c r="F359" s="3" t="s">
         <v>2205</v>
       </c>
-      <c r="F359" s="3" t="s">
+      <c r="G359" s="3" t="s">
         <v>2206</v>
       </c>
-      <c r="G359" s="3" t="s">
+      <c r="H359" s="3" t="s">
         <v>2207</v>
       </c>
-      <c r="H359" s="3" t="s">
+      <c r="I359" s="2" t="s">
         <v>2208</v>
-      </c>
-      <c r="I359" s="2" t="s">
-        <v>2209</v>
       </c>
       <c r="J359" s="2" t="s">
         <v>153</v>
@@ -22634,25 +22635,25 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C360" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D360" s="3" t="s">
         <v>2210</v>
       </c>
-      <c r="C360" t="s">
-        <v>2210</v>
-      </c>
-      <c r="D360" s="3" t="s">
+      <c r="E360" s="3" t="s">
         <v>2211</v>
       </c>
-      <c r="E360" s="3" t="s">
+      <c r="G360" s="3" t="s">
         <v>2212</v>
       </c>
-      <c r="G360" s="3" t="s">
+      <c r="H360" s="3" t="s">
         <v>2213</v>
       </c>
-      <c r="H360" s="3" t="s">
+      <c r="I360" s="2" t="s">
         <v>2214</v>
-      </c>
-      <c r="I360" s="2" t="s">
-        <v>2215</v>
       </c>
       <c r="J360" s="2" t="s">
         <v>27</v>
@@ -22671,25 +22672,25 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C361" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D361" s="3" t="s">
         <v>2216</v>
       </c>
-      <c r="C361" t="s">
-        <v>2216</v>
-      </c>
-      <c r="D361" s="3" t="s">
+      <c r="E361" s="3" t="s">
         <v>2217</v>
       </c>
-      <c r="E361" s="3" t="s">
+      <c r="F361" s="3" t="s">
         <v>2218</v>
-      </c>
-      <c r="F361" s="3" t="s">
-        <v>2219</v>
       </c>
       <c r="G361" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="I361" s="2" t="s">
         <v>26</v>
@@ -22711,25 +22712,25 @@
         <v>361</v>
       </c>
       <c r="B362" s="12" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C362" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D362" s="12" t="s">
         <v>2221</v>
       </c>
-      <c r="C362" t="s">
-        <v>2221</v>
-      </c>
-      <c r="D362" s="12" t="s">
+      <c r="E362" s="12" t="s">
         <v>2222</v>
       </c>
-      <c r="E362" s="12" t="s">
+      <c r="F362" s="12" t="s">
         <v>2223</v>
       </c>
-      <c r="F362" s="12" t="s">
+      <c r="G362" s="12" t="s">
         <v>2224</v>
       </c>
-      <c r="G362" s="12" t="s">
+      <c r="H362" s="12" t="s">
         <v>2225</v>
-      </c>
-      <c r="H362" s="12" t="s">
-        <v>2226</v>
       </c>
       <c r="I362" s="2" t="s">
         <v>26</v>
@@ -22763,28 +22764,28 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C363" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D363" s="3" t="s">
         <v>2227</v>
       </c>
-      <c r="C363" t="s">
-        <v>2227</v>
-      </c>
-      <c r="D363" s="3" t="s">
+      <c r="E363" s="3" t="s">
         <v>2228</v>
       </c>
-      <c r="E363" s="3" t="s">
+      <c r="F363" s="3" t="s">
         <v>2229</v>
       </c>
-      <c r="F363" s="3" t="s">
+      <c r="G363" s="3" t="s">
         <v>2230</v>
       </c>
-      <c r="G363" s="3" t="s">
+      <c r="H363" s="3" t="s">
         <v>2231</v>
       </c>
-      <c r="H363" s="3" t="s">
+      <c r="I363" s="2" t="s">
         <v>2232</v>
-      </c>
-      <c r="I363" s="2" t="s">
-        <v>2233</v>
       </c>
       <c r="J363" s="2" t="s">
         <v>17</v>
@@ -22803,25 +22804,25 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C364" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D364" s="3" t="s">
         <v>2234</v>
       </c>
-      <c r="C364" t="s">
-        <v>2234</v>
-      </c>
-      <c r="D364" s="3" t="s">
+      <c r="E364" s="3" t="s">
         <v>2235</v>
       </c>
-      <c r="E364" s="3" t="s">
+      <c r="G364" s="3" t="s">
         <v>2236</v>
       </c>
-      <c r="G364" s="3" t="s">
+      <c r="H364" s="3" t="s">
         <v>2237</v>
       </c>
-      <c r="H364" s="3" t="s">
+      <c r="I364" s="2" t="s">
         <v>2238</v>
-      </c>
-      <c r="I364" s="2" t="s">
-        <v>2239</v>
       </c>
       <c r="J364" s="2" t="s">
         <v>17</v>
@@ -22840,22 +22841,22 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C365" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D365" s="3" t="s">
         <v>2240</v>
       </c>
-      <c r="C365" t="s">
-        <v>2240</v>
-      </c>
-      <c r="D365" s="3" t="s">
+      <c r="E365" s="3" t="s">
         <v>2241</v>
       </c>
-      <c r="E365" s="3" t="s">
+      <c r="G365" s="3" t="s">
         <v>2242</v>
       </c>
-      <c r="G365" s="3" t="s">
+      <c r="H365" s="3" t="s">
         <v>2243</v>
-      </c>
-      <c r="H365" s="3" t="s">
-        <v>2244</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>26</v>
@@ -22877,28 +22878,28 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C366" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D366" s="3" t="s">
         <v>2245</v>
       </c>
-      <c r="C366" t="s">
-        <v>2245</v>
-      </c>
-      <c r="D366" s="3" t="s">
+      <c r="E366" s="3" t="s">
         <v>2246</v>
-      </c>
-      <c r="E366" s="3" t="s">
-        <v>2247</v>
       </c>
       <c r="F366" s="3" t="s">
         <v>206</v>
       </c>
       <c r="G366" s="3" t="s">
+        <v>2247</v>
+      </c>
+      <c r="H366" s="3" t="s">
         <v>2248</v>
       </c>
-      <c r="H366" s="3" t="s">
+      <c r="I366" s="2" t="s">
         <v>2249</v>
-      </c>
-      <c r="I366" s="2" t="s">
-        <v>2250</v>
       </c>
       <c r="J366" s="2" t="s">
         <v>17</v>
@@ -22917,25 +22918,25 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C367" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D367" s="3" t="s">
         <v>2251</v>
       </c>
-      <c r="C367" t="s">
-        <v>2251</v>
-      </c>
-      <c r="D367" s="3" t="s">
+      <c r="E367" s="3" t="s">
         <v>2252</v>
       </c>
-      <c r="E367" s="3" t="s">
+      <c r="G367" s="3" t="s">
         <v>2253</v>
       </c>
-      <c r="G367" s="3" t="s">
+      <c r="H367" s="3" t="s">
         <v>2254</v>
       </c>
-      <c r="H367" s="3" t="s">
+      <c r="I367" s="2" t="s">
         <v>2255</v>
-      </c>
-      <c r="I367" s="2" t="s">
-        <v>2256</v>
       </c>
       <c r="J367" s="2" t="s">
         <v>27</v>
@@ -22954,25 +22955,25 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C368" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D368" s="3" t="s">
         <v>2257</v>
       </c>
-      <c r="C368" t="s">
-        <v>2257</v>
-      </c>
-      <c r="D368" s="3" t="s">
+      <c r="E368" s="3" t="s">
         <v>2258</v>
       </c>
-      <c r="E368" s="3" t="s">
+      <c r="G368" s="3" t="s">
         <v>2259</v>
       </c>
-      <c r="G368" s="3" t="s">
+      <c r="H368" s="3" t="s">
         <v>2260</v>
       </c>
-      <c r="H368" s="3" t="s">
+      <c r="I368" s="2" t="s">
         <v>2261</v>
-      </c>
-      <c r="I368" s="2" t="s">
-        <v>2262</v>
       </c>
       <c r="J368" s="2" t="s">
         <v>27</v>
@@ -22991,25 +22992,25 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C369" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D369" s="3" t="s">
         <v>2263</v>
-      </c>
-      <c r="C369" t="s">
-        <v>2263</v>
-      </c>
-      <c r="D369" s="3" t="s">
-        <v>2264</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>732</v>
       </c>
       <c r="F369" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G369" s="3" t="s">
         <v>2265</v>
       </c>
-      <c r="G369" s="3" t="s">
+      <c r="H369" s="3" t="s">
         <v>2266</v>
-      </c>
-      <c r="H369" s="3" t="s">
-        <v>2267</v>
       </c>
       <c r="I369" s="2" t="s">
         <v>26</v>
@@ -23031,28 +23032,28 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C370" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D370" s="3" t="s">
         <v>2268</v>
       </c>
-      <c r="C370" t="s">
-        <v>2268</v>
-      </c>
-      <c r="D370" s="3" t="s">
+      <c r="E370" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G370" s="3" t="s">
         <v>2269</v>
       </c>
-      <c r="E370" s="3" t="s">
-        <v>1808</v>
-      </c>
-      <c r="F370" s="3" t="s">
-        <v>1809</v>
-      </c>
-      <c r="G370" s="3" t="s">
+      <c r="H370" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I370" s="2" t="s">
         <v>2270</v>
-      </c>
-      <c r="H370" s="3" t="s">
-        <v>1811</v>
-      </c>
-      <c r="I370" s="2" t="s">
-        <v>2271</v>
       </c>
       <c r="J370" s="2" t="s">
         <v>729</v>
@@ -23071,25 +23072,25 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C371" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D371" s="3" t="s">
         <v>2272</v>
       </c>
-      <c r="C371" t="s">
-        <v>2272</v>
-      </c>
-      <c r="D371" s="3" t="s">
+      <c r="E371" s="3" t="s">
         <v>2273</v>
       </c>
-      <c r="E371" s="3" t="s">
+      <c r="F371" s="3" t="s">
         <v>2274</v>
       </c>
-      <c r="F371" s="3" t="s">
+      <c r="G371" s="3" t="s">
         <v>2275</v>
       </c>
-      <c r="G371" s="3" t="s">
+      <c r="H371" s="3" t="s">
         <v>2276</v>
-      </c>
-      <c r="H371" s="3" t="s">
-        <v>2277</v>
       </c>
       <c r="I371" s="2" t="s">
         <v>26</v>
@@ -23111,25 +23112,25 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C372" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D372" s="3" t="s">
         <v>2278</v>
       </c>
-      <c r="C372" t="s">
-        <v>2278</v>
-      </c>
-      <c r="D372" s="3" t="s">
+      <c r="E372" s="3" t="s">
         <v>2279</v>
-      </c>
-      <c r="E372" s="3" t="s">
-        <v>2280</v>
       </c>
       <c r="F372" s="3" t="s">
         <v>206</v>
       </c>
       <c r="G372" s="3" t="s">
+        <v>2280</v>
+      </c>
+      <c r="H372" s="3" t="s">
         <v>2281</v>
-      </c>
-      <c r="H372" s="3" t="s">
-        <v>2282</v>
       </c>
       <c r="I372" s="2" t="s">
         <v>26</v>
@@ -23151,31 +23152,31 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C373" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D373" s="3" t="s">
         <v>2283</v>
       </c>
-      <c r="C373" t="s">
-        <v>2283</v>
-      </c>
-      <c r="D373" s="3" t="s">
+      <c r="E373" s="3" t="s">
         <v>2284</v>
       </c>
-      <c r="E373" s="3" t="s">
+      <c r="F373" s="3" t="s">
         <v>2285</v>
       </c>
-      <c r="F373" s="3" t="s">
+      <c r="G373" s="3" t="s">
         <v>2286</v>
       </c>
-      <c r="G373" s="3" t="s">
+      <c r="H373" s="3" t="s">
         <v>2287</v>
       </c>
-      <c r="H373" s="3" t="s">
+      <c r="I373" s="20" t="s">
+        <v>2459</v>
+      </c>
+      <c r="J373" s="2" t="s">
         <v>2288</v>
-      </c>
-      <c r="I373" s="20" t="s">
-        <v>2460</v>
-      </c>
-      <c r="J373" s="2" t="s">
-        <v>2289</v>
       </c>
       <c r="K373" s="3" t="s">
         <v>35</v>
@@ -23191,28 +23192,28 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C374" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D374" s="3" t="s">
         <v>2290</v>
       </c>
-      <c r="C374" t="s">
-        <v>2290</v>
-      </c>
-      <c r="D374" s="3" t="s">
+      <c r="E374" s="3" t="s">
         <v>2291</v>
       </c>
-      <c r="E374" s="3" t="s">
+      <c r="F374" s="3" t="s">
         <v>2292</v>
       </c>
-      <c r="F374" s="3" t="s">
+      <c r="G374" s="3" t="s">
         <v>2293</v>
       </c>
-      <c r="G374" s="3" t="s">
+      <c r="H374" s="3" t="s">
         <v>2294</v>
       </c>
-      <c r="H374" s="3" t="s">
+      <c r="I374" s="2" t="s">
         <v>2295</v>
-      </c>
-      <c r="I374" s="2" t="s">
-        <v>2296</v>
       </c>
       <c r="J374" s="2" t="s">
         <v>17</v>
@@ -23231,31 +23232,31 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C375" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D375" s="3" t="s">
         <v>2297</v>
       </c>
-      <c r="C375" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D375" s="3" t="s">
+      <c r="E375" s="3" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F375" s="3" t="s">
         <v>2298</v>
       </c>
-      <c r="E375" s="3" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F375" s="3" t="s">
+      <c r="G375" s="3" t="s">
         <v>2299</v>
       </c>
-      <c r="G375" s="3" t="s">
+      <c r="H375" s="3" t="s">
         <v>2300</v>
-      </c>
-      <c r="H375" s="3" t="s">
-        <v>2301</v>
       </c>
       <c r="I375" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J375" s="2" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="K375" s="3" t="s">
         <v>35</v>
@@ -23271,13 +23272,13 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C376" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D376" s="3" t="s">
         <v>2303</v>
-      </c>
-      <c r="C376" t="s">
-        <v>2303</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>2304</v>
       </c>
       <c r="E376" s="3" t="s">
         <v>1172</v>
@@ -23286,13 +23287,13 @@
         <v>1173</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="H376" s="3" t="s">
         <v>1175</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="J376" s="2" t="s">
         <v>153</v>
@@ -23311,28 +23312,28 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C377" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D377" s="3" t="s">
         <v>2307</v>
       </c>
-      <c r="C377" t="s">
-        <v>2307</v>
-      </c>
-      <c r="D377" s="3" t="s">
+      <c r="E377" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>2058</v>
+      </c>
+      <c r="G377" s="3" t="s">
         <v>2308</v>
       </c>
-      <c r="E377" s="3" t="s">
-        <v>1892</v>
-      </c>
-      <c r="F377" s="3" t="s">
-        <v>2059</v>
-      </c>
-      <c r="G377" s="3" t="s">
+      <c r="H377" s="3" t="s">
         <v>2309</v>
       </c>
-      <c r="H377" s="3" t="s">
+      <c r="I377" s="2" t="s">
         <v>2310</v>
-      </c>
-      <c r="I377" s="2" t="s">
-        <v>2311</v>
       </c>
       <c r="J377" s="2" t="s">
         <v>17</v>
@@ -23351,25 +23352,25 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C378" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D378" s="3" t="s">
         <v>2312</v>
       </c>
-      <c r="C378" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D378" s="3" t="s">
+      <c r="E378" s="3" t="s">
         <v>2313</v>
       </c>
-      <c r="E378" s="3" t="s">
+      <c r="G378" s="3" t="s">
         <v>2314</v>
       </c>
-      <c r="G378" s="3" t="s">
+      <c r="H378" s="3" t="s">
         <v>2315</v>
       </c>
-      <c r="H378" s="3" t="s">
+      <c r="I378" s="2" t="s">
         <v>2316</v>
-      </c>
-      <c r="I378" s="2" t="s">
-        <v>2317</v>
       </c>
       <c r="J378" s="2" t="s">
         <v>17</v>
@@ -23388,25 +23389,25 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C379" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D379" s="3" t="s">
         <v>2318</v>
       </c>
-      <c r="C379" t="s">
-        <v>2318</v>
-      </c>
-      <c r="D379" s="3" t="s">
+      <c r="E379" s="3" t="s">
         <v>2319</v>
       </c>
-      <c r="E379" s="3" t="s">
+      <c r="G379" s="3" t="s">
         <v>2320</v>
       </c>
-      <c r="G379" s="3" t="s">
+      <c r="H379" s="3" t="s">
         <v>2321</v>
       </c>
-      <c r="H379" s="3" t="s">
+      <c r="I379" s="2" t="s">
         <v>2322</v>
-      </c>
-      <c r="I379" s="2" t="s">
-        <v>2323</v>
       </c>
       <c r="J379" s="2" t="s">
         <v>243</v>
@@ -23425,25 +23426,25 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C380" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D380" s="3" t="s">
         <v>2324</v>
       </c>
-      <c r="C380" t="s">
-        <v>2324</v>
-      </c>
-      <c r="D380" s="3" t="s">
+      <c r="E380" s="3" t="s">
         <v>2325</v>
       </c>
-      <c r="E380" s="3" t="s">
+      <c r="G380" s="3" t="s">
         <v>2326</v>
       </c>
-      <c r="G380" s="3" t="s">
+      <c r="H380" s="3" t="s">
         <v>2327</v>
       </c>
-      <c r="H380" s="3" t="s">
+      <c r="I380" s="2" t="s">
         <v>2328</v>
-      </c>
-      <c r="I380" s="2" t="s">
-        <v>2329</v>
       </c>
       <c r="J380" s="2" t="s">
         <v>243</v>
@@ -23462,25 +23463,25 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C381" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D381" s="3" t="s">
         <v>2330</v>
       </c>
-      <c r="C381" t="s">
-        <v>2330</v>
-      </c>
-      <c r="D381" s="3" t="s">
+      <c r="E381" s="3" t="s">
         <v>2331</v>
       </c>
-      <c r="E381" s="3" t="s">
+      <c r="G381" s="3" t="s">
         <v>2332</v>
       </c>
-      <c r="G381" s="3" t="s">
+      <c r="H381" s="3" t="s">
         <v>2333</v>
       </c>
-      <c r="H381" s="3" t="s">
+      <c r="I381" s="2" t="s">
         <v>2334</v>
-      </c>
-      <c r="I381" s="2" t="s">
-        <v>2335</v>
       </c>
       <c r="J381" s="2" t="s">
         <v>17</v>
@@ -23499,28 +23500,28 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C382" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D382" s="3" t="s">
         <v>2336</v>
       </c>
-      <c r="C382" t="s">
-        <v>2336</v>
-      </c>
-      <c r="D382" s="3" t="s">
+      <c r="E382" s="3" t="s">
         <v>2337</v>
       </c>
-      <c r="E382" s="3" t="s">
+      <c r="F382" s="3" t="s">
         <v>2338</v>
       </c>
-      <c r="F382" s="3" t="s">
+      <c r="G382" s="3" t="s">
         <v>2339</v>
       </c>
-      <c r="G382" s="3" t="s">
+      <c r="H382" s="3" t="s">
         <v>2340</v>
       </c>
-      <c r="H382" s="3" t="s">
+      <c r="I382" s="2" t="s">
         <v>2341</v>
-      </c>
-      <c r="I382" s="2" t="s">
-        <v>2342</v>
       </c>
       <c r="J382" s="2" t="s">
         <v>243</v>
@@ -23539,28 +23540,28 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C383" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D383" s="3" t="s">
         <v>2343</v>
       </c>
-      <c r="C383" t="s">
-        <v>2343</v>
-      </c>
-      <c r="D383" s="3" t="s">
+      <c r="E383" s="3" t="s">
         <v>2344</v>
-      </c>
-      <c r="E383" s="3" t="s">
-        <v>2345</v>
       </c>
       <c r="F383" s="3" t="s">
         <v>206</v>
       </c>
       <c r="G383" s="3" t="s">
+        <v>2345</v>
+      </c>
+      <c r="H383" s="3" t="s">
         <v>2346</v>
       </c>
-      <c r="H383" s="3" t="s">
+      <c r="I383" s="2" t="s">
         <v>2347</v>
-      </c>
-      <c r="I383" s="2" t="s">
-        <v>2348</v>
       </c>
       <c r="J383" s="2" t="s">
         <v>27</v>
@@ -23579,22 +23580,22 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D384" s="3" t="s">
         <v>2349</v>
       </c>
-      <c r="C384" t="s">
-        <v>2349</v>
-      </c>
-      <c r="D384" s="3" t="s">
+      <c r="E384" s="3" t="s">
         <v>2350</v>
-      </c>
-      <c r="E384" s="3" t="s">
-        <v>2351</v>
       </c>
       <c r="G384" s="3" t="s">
         <v>637</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>26</v>
@@ -23611,7 +23612,7 @@
       <c r="N384" s="13"/>
       <c r="O384" s="13"/>
       <c r="U384" s="3" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="385" spans="1:21" ht="16.5" customHeight="1">
@@ -23619,25 +23620,25 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C385" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D385" s="3" t="s">
         <v>2354</v>
       </c>
-      <c r="C385" t="s">
-        <v>2354</v>
-      </c>
-      <c r="D385" s="3" t="s">
+      <c r="E385" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G385" s="3" t="s">
         <v>2355</v>
       </c>
-      <c r="E385" s="3" t="s">
-        <v>1711</v>
-      </c>
-      <c r="G385" s="3" t="s">
-        <v>2356</v>
-      </c>
       <c r="H385" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I385" s="2" t="s">
         <v>1713</v>
-      </c>
-      <c r="I385" s="2" t="s">
-        <v>1714</v>
       </c>
       <c r="J385" s="2" t="s">
         <v>17</v>
@@ -23651,7 +23652,7 @@
       <c r="N385" s="13"/>
       <c r="O385" s="13"/>
       <c r="U385" s="3" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="386" spans="1:21" ht="16.5" customHeight="1">
@@ -23659,25 +23660,25 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C386" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D386" s="3" t="s">
         <v>2358</v>
       </c>
-      <c r="C386" t="s">
-        <v>2358</v>
-      </c>
-      <c r="D386" s="3" t="s">
+      <c r="E386" s="3" t="s">
         <v>2359</v>
       </c>
-      <c r="E386" s="3" t="s">
-        <v>2360</v>
-      </c>
       <c r="F386" s="3" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="G386" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="I386" s="2" t="s">
         <v>26</v>
@@ -23699,22 +23700,22 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C387" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D387" s="3" t="s">
         <v>2362</v>
       </c>
-      <c r="C387" t="s">
-        <v>2362</v>
-      </c>
-      <c r="D387" s="3" t="s">
+      <c r="E387" s="3" t="s">
         <v>2363</v>
       </c>
-      <c r="E387" s="3" t="s">
+      <c r="G387" s="3" t="s">
         <v>2364</v>
       </c>
-      <c r="G387" s="3" t="s">
+      <c r="H387" s="3" t="s">
         <v>2365</v>
-      </c>
-      <c r="H387" s="3" t="s">
-        <v>2366</v>
       </c>
       <c r="I387" s="2" t="s">
         <v>26</v>
@@ -23736,28 +23737,28 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C388" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D388" s="3" t="s">
         <v>2367</v>
       </c>
-      <c r="C388" t="s">
-        <v>2367</v>
-      </c>
-      <c r="D388" s="3" t="s">
+      <c r="E388" s="3" t="s">
         <v>2368</v>
       </c>
-      <c r="E388" s="3" t="s">
+      <c r="F388" s="3" t="s">
         <v>2369</v>
       </c>
-      <c r="F388" s="3" t="s">
+      <c r="G388" s="3" t="s">
         <v>2370</v>
       </c>
-      <c r="G388" s="3" t="s">
+      <c r="H388" s="3" t="s">
         <v>2371</v>
       </c>
-      <c r="H388" s="3" t="s">
+      <c r="I388" s="2" t="s">
         <v>2372</v>
-      </c>
-      <c r="I388" s="2" t="s">
-        <v>2373</v>
       </c>
       <c r="J388" s="2" t="s">
         <v>17</v>
@@ -23776,25 +23777,25 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C389" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D389" s="3" t="s">
         <v>2374</v>
       </c>
-      <c r="C389" t="s">
-        <v>2374</v>
-      </c>
-      <c r="D389" s="3" t="s">
+      <c r="E389" s="3" t="s">
         <v>2375</v>
       </c>
-      <c r="E389" s="3" t="s">
+      <c r="G389" s="3" t="s">
         <v>2376</v>
       </c>
-      <c r="G389" s="3" t="s">
+      <c r="H389" s="3" t="s">
         <v>2377</v>
       </c>
-      <c r="H389" s="3" t="s">
+      <c r="I389" s="2" t="s">
         <v>2378</v>
-      </c>
-      <c r="I389" s="2" t="s">
-        <v>2379</v>
       </c>
       <c r="J389" s="2" t="s">
         <v>17</v>
@@ -23816,28 +23817,28 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C390" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D390" s="3" t="s">
         <v>2380</v>
       </c>
-      <c r="C390" t="s">
-        <v>2380</v>
-      </c>
-      <c r="D390" s="3" t="s">
+      <c r="E390" s="3" t="s">
         <v>2381</v>
       </c>
-      <c r="E390" s="3" t="s">
+      <c r="F390" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G390" s="3" t="s">
         <v>2382</v>
       </c>
-      <c r="F390" s="3" t="s">
-        <v>1647</v>
-      </c>
-      <c r="G390" s="3" t="s">
+      <c r="H390" s="3" t="s">
         <v>2383</v>
       </c>
-      <c r="H390" s="3" t="s">
+      <c r="I390" s="2" t="s">
         <v>2384</v>
-      </c>
-      <c r="I390" s="2" t="s">
-        <v>2385</v>
       </c>
       <c r="J390" s="2" t="s">
         <v>17</v>
@@ -23851,7 +23852,7 @@
       <c r="N390" s="13"/>
       <c r="O390" s="13"/>
       <c r="U390" s="3" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="391" spans="1:21" ht="16.5" customHeight="1">
@@ -23859,28 +23860,28 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C391" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D391" s="3" t="s">
         <v>2387</v>
       </c>
-      <c r="C391" t="s">
-        <v>2387</v>
-      </c>
-      <c r="D391" s="3" t="s">
-        <v>2388</v>
-      </c>
       <c r="E391" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F391" s="3" t="s">
         <v>150</v>
       </c>
       <c r="G391" s="3" t="s">
+        <v>2388</v>
+      </c>
+      <c r="H391" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I391" s="2" t="s">
         <v>2389</v>
-      </c>
-      <c r="H391" s="3" t="s">
-        <v>1543</v>
-      </c>
-      <c r="I391" s="2" t="s">
-        <v>2390</v>
       </c>
       <c r="J391" s="2" t="s">
         <v>27</v>
@@ -23899,25 +23900,25 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C392" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D392" s="3" t="s">
         <v>2391</v>
       </c>
-      <c r="C392" t="s">
-        <v>2391</v>
-      </c>
-      <c r="D392" s="3" t="s">
+      <c r="E392" s="3" t="s">
         <v>2392</v>
       </c>
-      <c r="E392" s="3" t="s">
+      <c r="G392" s="3" t="s">
         <v>2393</v>
       </c>
-      <c r="G392" s="3" t="s">
+      <c r="H392" s="3" t="s">
         <v>2394</v>
       </c>
-      <c r="H392" s="3" t="s">
-        <v>2395</v>
-      </c>
       <c r="I392" s="20" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="J392" s="2" t="s">
         <v>17</v>
@@ -23936,25 +23937,25 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C393" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D393" s="3" t="s">
         <v>2396</v>
       </c>
-      <c r="C393" t="s">
-        <v>2396</v>
-      </c>
-      <c r="D393" s="3" t="s">
+      <c r="E393" s="3" t="s">
         <v>2397</v>
       </c>
-      <c r="E393" s="3" t="s">
+      <c r="F393" s="3" t="s">
         <v>2398</v>
       </c>
-      <c r="F393" s="3" t="s">
+      <c r="G393" s="3" t="s">
         <v>2399</v>
       </c>
-      <c r="G393" s="3" t="s">
+      <c r="H393" s="3" t="s">
         <v>2400</v>
-      </c>
-      <c r="H393" s="3" t="s">
-        <v>2401</v>
       </c>
       <c r="I393" s="2" t="s">
         <v>26</v>
@@ -23976,25 +23977,25 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C394" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D394" s="3" t="s">
         <v>2402</v>
       </c>
-      <c r="C394" t="s">
-        <v>2402</v>
-      </c>
-      <c r="D394" s="3" t="s">
+      <c r="E394" s="3" t="s">
         <v>2403</v>
       </c>
-      <c r="E394" s="3" t="s">
+      <c r="F394" s="3" t="s">
         <v>2404</v>
-      </c>
-      <c r="F394" s="3" t="s">
-        <v>2405</v>
       </c>
       <c r="G394" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="I394" s="2" t="s">
         <v>26</v>
@@ -24016,25 +24017,25 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C395" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D395" s="3" t="s">
         <v>2407</v>
       </c>
-      <c r="C395" t="s">
-        <v>2407</v>
-      </c>
-      <c r="D395" s="3" t="s">
+      <c r="E395" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F395" s="3" t="s">
         <v>2408</v>
       </c>
-      <c r="E395" s="3" t="s">
-        <v>1892</v>
-      </c>
-      <c r="F395" s="3" t="s">
+      <c r="G395" s="3" t="s">
         <v>2409</v>
       </c>
-      <c r="G395" s="3" t="s">
+      <c r="H395" s="3" t="s">
         <v>2410</v>
-      </c>
-      <c r="H395" s="3" t="s">
-        <v>2411</v>
       </c>
       <c r="I395" s="2" t="s">
         <v>26</v>
@@ -24056,28 +24057,28 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C396" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D396" s="3" t="s">
         <v>2412</v>
       </c>
-      <c r="C396" t="s">
-        <v>2412</v>
-      </c>
-      <c r="D396" s="3" t="s">
+      <c r="E396" s="3" t="s">
         <v>2413</v>
       </c>
-      <c r="E396" s="3" t="s">
+      <c r="F396" s="3" t="s">
         <v>2414</v>
       </c>
-      <c r="F396" s="3" t="s">
+      <c r="G396" s="3" t="s">
         <v>2415</v>
       </c>
-      <c r="G396" s="3" t="s">
+      <c r="H396" s="3" t="s">
         <v>2416</v>
       </c>
-      <c r="H396" s="3" t="s">
+      <c r="I396" s="2" t="s">
         <v>2417</v>
-      </c>
-      <c r="I396" s="2" t="s">
-        <v>2418</v>
       </c>
       <c r="J396" s="2" t="s">
         <v>243</v>
@@ -24096,22 +24097,22 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C397" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D397" s="3" t="s">
         <v>2419</v>
       </c>
-      <c r="C397" t="s">
-        <v>2419</v>
-      </c>
-      <c r="D397" s="3" t="s">
+      <c r="E397" s="3" t="s">
         <v>2420</v>
       </c>
-      <c r="E397" s="3" t="s">
+      <c r="G397" s="3" t="s">
         <v>2421</v>
       </c>
-      <c r="G397" s="3" t="s">
+      <c r="H397" s="3" t="s">
         <v>2422</v>
-      </c>
-      <c r="H397" s="3" t="s">
-        <v>2423</v>
       </c>
       <c r="I397" s="2" t="s">
         <v>26</v>
@@ -24133,25 +24134,25 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C398" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D398" s="3" t="s">
         <v>2424</v>
       </c>
-      <c r="C398" t="s">
-        <v>2424</v>
-      </c>
-      <c r="D398" s="3" t="s">
+      <c r="E398" s="3" t="s">
+        <v>2319</v>
+      </c>
+      <c r="G398" s="3" t="s">
         <v>2425</v>
       </c>
-      <c r="E398" s="3" t="s">
-        <v>2320</v>
-      </c>
-      <c r="G398" s="3" t="s">
+      <c r="H398" s="3" t="s">
+        <v>2321</v>
+      </c>
+      <c r="I398" s="2" t="s">
         <v>2426</v>
-      </c>
-      <c r="H398" s="3" t="s">
-        <v>2322</v>
-      </c>
-      <c r="I398" s="2" t="s">
-        <v>2427</v>
       </c>
       <c r="J398" s="2" t="s">
         <v>153</v>
@@ -24170,28 +24171,28 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C399" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D399" s="3" t="s">
         <v>2428</v>
       </c>
-      <c r="C399" t="s">
-        <v>2428</v>
-      </c>
-      <c r="D399" s="3" t="s">
+      <c r="E399" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G399" s="3" t="s">
         <v>2429</v>
       </c>
-      <c r="E399" s="3" t="s">
-        <v>1846</v>
-      </c>
-      <c r="F399" s="3" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G399" s="3" t="s">
+      <c r="H399" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="I399" s="2" t="s">
         <v>2430</v>
-      </c>
-      <c r="H399" s="3" t="s">
-        <v>1818</v>
-      </c>
-      <c r="I399" s="2" t="s">
-        <v>2431</v>
       </c>
       <c r="J399" s="2" t="s">
         <v>293</v>
@@ -24210,28 +24211,28 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C400" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D400" s="3" t="s">
         <v>2432</v>
       </c>
-      <c r="C400" t="s">
-        <v>2432</v>
-      </c>
-      <c r="D400" s="3" t="s">
+      <c r="E400" s="3" t="s">
         <v>2433</v>
       </c>
-      <c r="E400" s="3" t="s">
+      <c r="F400" s="3" t="s">
         <v>2434</v>
       </c>
-      <c r="F400" s="3" t="s">
+      <c r="G400" s="3" t="s">
         <v>2435</v>
       </c>
-      <c r="G400" s="3" t="s">
+      <c r="H400" s="3" t="s">
         <v>2436</v>
       </c>
-      <c r="H400" s="3" t="s">
+      <c r="I400" s="2" t="s">
         <v>2437</v>
-      </c>
-      <c r="I400" s="2" t="s">
-        <v>2438</v>
       </c>
       <c r="J400" s="2" t="s">
         <v>85</v>
@@ -24245,7 +24246,7 @@
       <c r="N400" s="13"/>
       <c r="O400" s="13"/>
       <c r="P400" s="3" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="401" spans="1:19" ht="16.5" customHeight="1">
@@ -24253,28 +24254,28 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C401" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D401" s="3" t="s">
         <v>2440</v>
       </c>
-      <c r="C401" t="s">
-        <v>2440</v>
-      </c>
-      <c r="D401" s="3" t="s">
+      <c r="E401" s="3" t="s">
         <v>2441</v>
       </c>
-      <c r="E401" s="3" t="s">
+      <c r="F401" s="3" t="s">
         <v>2442</v>
       </c>
-      <c r="F401" s="3" t="s">
+      <c r="G401" s="3" t="s">
         <v>2443</v>
       </c>
-      <c r="G401" s="3" t="s">
+      <c r="H401" s="3" t="s">
         <v>2444</v>
       </c>
-      <c r="H401" s="3" t="s">
+      <c r="I401" s="2" t="s">
         <v>2445</v>
-      </c>
-      <c r="I401" s="2" t="s">
-        <v>2446</v>
       </c>
       <c r="J401" s="2" t="s">
         <v>243</v>
@@ -24293,28 +24294,28 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C402" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D402" s="3" t="s">
         <v>2447</v>
       </c>
-      <c r="C402" t="s">
-        <v>2447</v>
-      </c>
-      <c r="D402" s="3" t="s">
+      <c r="E402" s="3" t="s">
         <v>2448</v>
       </c>
-      <c r="E402" s="3" t="s">
+      <c r="F402" s="3" t="s">
         <v>2449</v>
       </c>
-      <c r="F402" s="3" t="s">
+      <c r="G402" s="3" t="s">
         <v>2450</v>
       </c>
-      <c r="G402" s="3" t="s">
+      <c r="H402" s="3" t="s">
         <v>2451</v>
       </c>
-      <c r="H402" s="3" t="s">
+      <c r="I402" s="2" t="s">
         <v>2452</v>
-      </c>
-      <c r="I402" s="2" t="s">
-        <v>2453</v>
       </c>
       <c r="J402" s="2" t="s">
         <v>17</v>
@@ -24333,22 +24334,22 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C403" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D403" s="3" t="s">
         <v>2454</v>
       </c>
-      <c r="C403" t="s">
-        <v>2454</v>
-      </c>
-      <c r="D403" s="3" t="s">
+      <c r="E403" s="3" t="s">
         <v>2455</v>
       </c>
-      <c r="E403" s="3" t="s">
+      <c r="G403" s="3" t="s">
         <v>2456</v>
       </c>
-      <c r="G403" s="3" t="s">
+      <c r="H403" s="3" t="s">
         <v>2457</v>
-      </c>
-      <c r="H403" s="3" t="s">
-        <v>2458</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>26</v>
@@ -24993,6 +24994,16 @@
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="N168:O168"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="N220:O220"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="N236:O236"/>
     <mergeCell ref="N368:O368"/>
     <mergeCell ref="N370:O370"/>
     <mergeCell ref="N393:O393"/>
@@ -25009,16 +25020,6 @@
     <mergeCell ref="N348:O348"/>
     <mergeCell ref="N352:O352"/>
     <mergeCell ref="N360:O360"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="N220:O220"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="N236:O236"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="N130:O130"/>
-    <mergeCell ref="N168:O168"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">

--- a/data/TESTData.xlsx
+++ b/data/TESTData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92102\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92102\OneDrive - NTHU\桌面\大三下\畢業專題\APP_新版本\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CEEA2E-4089-4BFD-8462-6BFF9F424187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B8F7C9-FBBA-4A61-8C09-F24B696D8DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6424,18 +6424,18 @@
   </si>
   <si>
     <t>F:FV|B:250</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:100MGST016</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(5mg)Olanzapine 5mg_tab</t>
   </si>
   <si>
     <t>測試過</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6460,49 +6460,49 @@
       </rPr>
       <t>20mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Dailycare Actibest S.C. Tablets</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Metformin HCL 500mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:E189|B:EEP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
   </si>
   <si>
     <t>Sennoside A+B 12.5mg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MAGnesium Oxide 250mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>退燒、止痛</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Acetaminophen 500mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Dimethicone 40mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6537,7 +6537,7 @@
       </rPr>
       <t>膠箔）</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6569,15 +6569,15 @@
       </rPr>
       <t>橘色</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:ESPINEEP|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ambroxol 30mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6602,7 +6602,7 @@
       </rPr>
       <t>)Metoclopramide 3.84mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6627,11 +6627,11 @@
       </rPr>
       <t>)Metoclopramide 3.84mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Nicametate Citrate 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6675,7 +6675,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6700,15 +6700,15 @@
       </rPr>
       <t xml:space="preserve"> 500mcg/Cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Strocain (Oxethazaine 5mg+Polymigel 244mg)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:SROO5|B:EISAI</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6748,39 +6748,39 @@
       </rPr>
       <t>NONE</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Soma Capsules</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>concor 1.25mg (Bisoprolol)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>propranolol Hcl 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>紅色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>很像粉紅色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CONCOR 5MG/TAB (BISOPROLOL)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>容易辨識成其他</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Prednisolone 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6824,7 +6824,7 @@
       </rPr>
       <t>20mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6849,19 +6849,19 @@
       </rPr>
       <t xml:space="preserve"> 5mg/Tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>容易判成橢圓形</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Diclofenac Potassium 25mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>很像皮膚色或紅色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6886,11 +6886,11 @@
       </rPr>
       <t xml:space="preserve"> 2mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:KOWA202|B:202</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6981,19 +6981,19 @@
       </rPr>
       <t>刪除</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Exforge (Amlodipine 5mg+Valsartan 80mg)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>eltroxin 0.05mg/tab (levothyroxin)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>刻痕模糊難判斷</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7018,15 +7018,15 @@
       </rPr>
       <t xml:space="preserve"> MR 30mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>OGLIC3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:ST|427</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7061,23 +7061,23 @@
       </rPr>
       <t>包</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Diphenidol Hcl 25mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Silymarin 150mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:CTA231|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Nicergoline 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7121,27 +7121,27 @@
       </rPr>
       <t>/TAB</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Betahistine 6mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>VALSARTAN 80mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(Solaxin)Chlorzoxazone 200mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可考慮改白色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Benzonatate 100mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7167,11 +7167,11 @@
       </rPr>
       <t>]Tamsulosin 0.4mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Cetirizine 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7193,15 +7193,15 @@
       </rPr>
       <t>Dimethicone 40mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Dextromethorphan Hbr 30mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Galvus Met(Vildagliptin50mg/Metformin850mg) film-coat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7226,7 +7226,7 @@
       </rPr>
       <t>Entresto 100mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7288,27 +7288,27 @@
       </rPr>
       <t>Metformin 500mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ticlopidine 250mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Suwell tablets _EVEREST_</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Repaglinide 1mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Orolisin F.C. Tablets</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Codepine tablets(Codeine  5mg+Terpin 10mg)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7331,11 +7331,11 @@
       </rPr>
       <t>Esomeprazole 40mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>文字難辨識</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7359,7 +7359,7 @@
       </rPr>
       <t>Calcium Acetate 667mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7470,11 +7470,11 @@
       </rPr>
       <t>Escitalopram 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Herbesser30mg/tab(Diltiazem)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7500,11 +7500,11 @@
       </rPr>
       <t>)Rabeprazole20mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>有點像黃色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7530,7 +7530,7 @@
       </rPr>
       <t>)SEVIKAR 5/40mg Tablets</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7563,27 +7563,27 @@
       </rPr>
       <t>字樣</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>像白色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ginkgo 40mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Doxazosin XL 4mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Pioglitazone 30mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Levocetirizine 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7599,15 +7599,15 @@
       </rPr>
       <t>刻痕太淺</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Dipyridamole 25mg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Linagliptin 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7633,11 +7633,11 @@
       </rPr>
       <t>Aluminum 100mg)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>刻痕難分</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7659,27 +7659,27 @@
       </rPr>
       <t>Glimepiride 2mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(500mg/cap)Amoxycillin 500mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Theophylline 200mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(25mg)Quetiapine 25mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:SEROQUEL25|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>文字難分</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7705,7 +7705,7 @@
       </rPr>
       <t>)Gabapentin 100mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7728,51 +7728,51 @@
       </rPr>
       <t>Hydroxychloroquine 200mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Sulpiride 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>PIRACETAM 1200mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:SY|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:C21F5|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(20mg) Isosorbide 5-Mononit 20mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MiRaBeGron 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Trihexyphenidyl 2mg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:SWISS2|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>文字不好辨識</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>FOLIC Acid 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Alinamin-F (Thiamine 50mg+Vit.B2 5mg)/tablets</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7798,7 +7798,7 @@
       </rPr>
       <t>]Theophylline 125mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7821,7 +7821,7 @@
       </rPr>
       <t>F50</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7847,7 +7847,7 @@
       </rPr>
       <t>)Trajenta Duo(linagliptin2.5mg/metformin850mg )</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7873,15 +7873,15 @@
       </rPr>
       <t>) 15/10/20/5</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>175不太好辨識</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Co-Diovan80/12.5mg(Valsartan80mg+Hydrochlorothiazide12.5mg)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7927,11 +7927,11 @@
       </rPr>
       <t>Furosemide 40mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>白色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7957,7 +7957,7 @@
       </rPr>
       <t>)Bisacodyl 5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7983,15 +7983,15 @@
       </rPr>
       <t>)Calcium Carbonate 500mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>使用者可能以為是白色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Nebivolol 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8017,11 +8017,11 @@
       </rPr>
       <t>)FeBuXoStat 80mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>可能辨識成980</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8047,19 +8047,19 @@
       </rPr>
       <t>)Madopar 250mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AMANTADINE Sulfate 100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Trazodone Hydrochloride 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>OMETLO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8082,35 +8082,35 @@
       </rPr>
       <t>Duloxetine 30mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Dutasteride 0.5mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(CRESTOR)Rosuvastatin 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:ZD452210|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>OROSU</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>字不太好辨識</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Mirtazapine 30mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>137不好辨識</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8133,15 +8133,15 @@
       </rPr>
       <t>Levetiracetam 500mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:ucb500|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>字不好辨識</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8167,11 +8167,11 @@
       </rPr>
       <t>D)Tamsulosin 0.2mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(Pletaal )Cilostazol 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8197,7 +8197,7 @@
       </rPr>
       <t>)ACARbose 100mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8211,11 +8211,11 @@
       </rPr>
       <t>沒有示範圖</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Propranolol 40mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8241,11 +8241,11 @@
       </rPr>
       <t>Metformin 1000mg) XR Tab.</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ketosteril 600mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8271,15 +8271,15 @@
       </rPr>
       <t>60mg)Herbesser 60mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Fenofibrate 160mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Otilonium  40mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8305,27 +8305,27 @@
       </rPr>
       <t>)PiTaVaStaTin  4mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Desloratadine 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>33對應Famotidine 錠20mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Pipoxolan HCL 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(6.25mg) CarVeDilol 6.25mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:SYNTREND|B:SY</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8351,7 +8351,7 @@
       </rPr>
       <t>)Telmisartan 80mg/Amlodipine 5mg</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8373,15 +8373,15 @@
       </rPr>
       <t>(Minidiab)Glipizide 5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Pilocarpine 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>5對應(5mg)Olanzapine 5mg_tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8404,15 +8404,15 @@
       </rPr>
       <t>Memantine 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Tranexamic Acid 250mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3可能釘成M</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8458,19 +8458,19 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:3|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>LO辨識成Desloratadine 5mg/tab 06可能辨識90</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Spironolactone 25mg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8496,7 +8496,7 @@
       </rPr>
       <t>-Mestinon)PYRIDOSTIGMINE   60mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8522,7 +8522,7 @@
       </rPr>
       <t>)Valproate sodium 500mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8548,11 +8548,11 @@
       </rPr>
       <t>)Mefenamic Acid 250mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>OLMESARTAN  40mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8578,7 +8578,7 @@
       </rPr>
       <t>)Atorvastatin 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8624,11 +8624,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lercanidipine  10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8654,11 +8654,11 @@
       </rPr>
       <t>)Cephalexin 250mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Sulfasalazine 500mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8684,7 +8684,7 @@
       </rPr>
       <t>)Exforge HCT 5/160/12.5mg</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8710,11 +8710,11 @@
       </rPr>
       <t>)Dapagliflozin 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Hiros S.R.M.(Pseudoephedrine 120mg+Cetirizine 5mg)/Capsules</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8757,19 +8757,19 @@
       </rPr>
       <t>Madopar HBS 125mg</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lithium Carbonate 300mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Carvedilol 25mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>字不好辨識 不太像圓形</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8792,11 +8792,11 @@
       </rPr>
       <t>Pregabalin 75mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Colchicine 0.5mg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8822,19 +8822,19 @@
       </rPr>
       <t>Saxagliptin 5mg)/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Biperiden 2mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Benzbromarone 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CEVImeline 30mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8860,43 +8860,43 @@
       </rPr>
       <t>)Etoricoxib 60mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(80mg)Telmisartan 80mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Amtrel Tablet(Benazepril HCl 10mg+Amlodipine besylate 5mg)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>OAMTR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>沒示範照</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ursodeoxycholic Acid 100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Loratadine 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Oxybutynin 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ATOZET Tablets (Atorvastain 20mg+Ezetimibe 10mg)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Mephenoxalone 200mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8922,15 +8922,15 @@
       </rPr>
       <t>Atorvastatin 20mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>PFIZER利瑞卡）Pregabalin 75mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Cyproheptadine 4mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8956,19 +8956,19 @@
       </rPr>
       <t>)Ferrous Gluconate 300mg+Thiamine 10mg+Ascorbic</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Finasteride 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Mexiletine Hcl 100mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>[Cordarone]Amiodarone 200mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>必賴克廔Hydroxychloroquine 200mg/tab</t>
@@ -8997,11 +8997,11 @@
       </rPr>
       <t>)SEVIKAR 40/5/12.5mg</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Dimenhydrinate 50mg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9027,7 +9027,7 @@
       </rPr>
       <t>)Bupropion  150mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9049,11 +9049,11 @@
       </rPr>
       <t>Tamoxifen 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:NOLVADEX10|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9075,31 +9075,31 @@
       </rPr>
       <t>Azathioprine 50mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Phenazopyridine HCL 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>[250mg] Amoxycillin 250mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(200mg)Quetiapine 200 mg/Tablet</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Risperidone 2mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Miyaphargen Film Coated Tablets</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Imipramine 25mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9125,15 +9125,15 @@
       </rPr>
       <t>)Venlafaxine 75mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Agomelatine 25mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Pravastatin Sodium 40mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9156,11 +9156,11 @@
       </rPr>
       <t>CLOpidogrel 75mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Loperamide HCL 2mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9183,19 +9183,19 @@
       </rPr>
       <t>Pseudoephedrine 120mg+Loratadine 5mg/Tab.</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Methimazole 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(1.5mg)Rivastigmine1.5mg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Canagliflozin 100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9221,15 +9221,15 @@
       </rPr>
       <t>)ESOmeprAZole 40mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Fenoterol 2.5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Calcitriol 0.25mcg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9251,7 +9251,7 @@
       </rPr>
       <t>Apixaban 5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9314,11 +9314,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lansoprazole 30mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9344,19 +9344,19 @@
       </rPr>
       <t>)Aripiprazole 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>[Meptin] Procaterol 25mcg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Dicloxacillin 250mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Dilantin 100mg/cap(phenytoin sodium)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9378,11 +9378,11 @@
       </rPr>
       <t>(110mg)Dabigatran 110mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Solifenacin 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9408,11 +9408,11 @@
       </rPr>
       <t>)Gabapentin 300mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Bismuth Subcarbonate 324mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9438,15 +9438,15 @@
       </rPr>
       <t>)Vildagliptin 50mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ticagrelor 90mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Fluvastatin Sodium 80mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9483,7 +9483,7 @@
       </rPr>
       <t>正確</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9526,7 +9526,7 @@
       </rPr>
       <t>Carbidopa 25mg)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9552,19 +9552,19 @@
       </rPr>
       <t>)Raloxifene  60mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ketotifen (Fumarate) 1mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Trimethoprim (TMP80mg+SMX400mg)/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Mebeverine 135mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9607,19 +9607,19 @@
       </rPr>
       <t>Montelukast 10mg</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>顏色淺黃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Amitriptyline Hcl 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>沒有小圖</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9661,7 +9661,7 @@
       </rPr>
       <t>-EDoXaBan 30mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9684,15 +9684,15 @@
       </rPr>
       <t>Allopurinol 100mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Terazosin 2mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Methylprednisolone 4mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9715,15 +9715,15 @@
       </rPr>
       <t xml:space="preserve"> (Rhynorm)Propafenone 150mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Nicodin Lozenges 4mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Topiramate 25mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9746,7 +9746,7 @@
       </rPr>
       <t xml:space="preserve"> Isosorbide 5-mononit 60mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9792,7 +9792,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9838,15 +9838,15 @@
       </rPr>
       <t>)chewable  5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Buclizine 25mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Doxycycline 100mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9868,7 +9868,7 @@
       </rPr>
       <t>(2.5mg)APiXaBan 2.5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9891,11 +9891,11 @@
       </rPr>
       <t>Dihydroergotoxine Methanesulfonate 1.5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>STD:Codepine tablets(Codeine 5mg+Terpin 10mg) E03可以</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9918,7 +9918,7 @@
       </rPr>
       <t>DoNePeZil 5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9944,15 +9944,15 @@
       </rPr>
       <t>)Empagliflozin 25mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Zonisamide 100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:132|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -9984,23 +9984,23 @@
       </rPr>
       <t>Anastrozole 1mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ferrum -H chewable 100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(75mg)DIpyridamole /tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Buspirone 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Propylthiouracil 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10042,11 +10042,11 @@
       </rPr>
       <t>-EDoXaBan 60mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Doxepin 25mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10072,23 +10072,23 @@
       </rPr>
       <t>)Flecainide Acetate 100mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Paroxetine  20mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AcetAzOlamide 250mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>M:多憶安DoNePeZil 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(200MG)Sulpiride 200mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10114,11 +10114,11 @@
       </rPr>
       <t>)Pramipexole 0.25mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DL-Methylephedrine Hcl 30mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10141,11 +10141,11 @@
       </rPr>
       <t>Clindamycin 150mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Oxcarbazepine 300mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10172,11 +10172,11 @@
       </rPr>
       <t>)Carbamazepine 200mg</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(60μg)Desmopressin 60μg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10199,31 +10199,31 @@
       </rPr>
       <t>Bumetanide 1mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:ST049|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(Vit B6)Pyridoxine HCL 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Cefixime 100mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:YSPCKC|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Sitagliptin100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(40mg)Micardis Plus Tablets 40/12.5MG</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10245,7 +10245,7 @@
       </rPr>
       <t>Letrozole 2.5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10268,7 +10268,7 @@
       </rPr>
       <t>Olanzapine 5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10291,19 +10291,19 @@
       </rPr>
       <t>Olanzapine 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>沒小圖</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lacosamide 100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:SP|B:100</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10329,7 +10329,7 @@
       </rPr>
       <t>)Imidapril Hydrochloride 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10352,15 +10352,15 @@
       </rPr>
       <t>Venlafaxine  37.5mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Verapamil Hcl 40mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Vortioxetine hydrobromide 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10387,7 +10387,7 @@
       </rPr>
       <t>)Dapagliflozin 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10413,7 +10413,7 @@
       </rPr>
       <t>) Midodrine Hcl 2.5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10439,31 +10439,31 @@
       </rPr>
       <t>-50)Lamotrigine 50mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Rivastigmine 4.5mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ramipril 2.5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:25|B:2.5HMR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>25:MiRaBeGron 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(100MG)Clozapine 100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(0.375mg) Pramipexole 0.375mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10509,19 +10509,19 @@
       </rPr>
       <t>) ATORVASTATIN 40MG /tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ATV:atorvastatin 黃 ２０ＭＧ/TAB</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:pfizer|B:CDT052</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:W|B:M</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10547,15 +10547,15 @@
       </rPr>
       <t>)Ezetimibe 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Hydralazine Hcl 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Mesalazine(Aminosalicylic Acid Meta-) 1600mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10581,15 +10581,15 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Pravafen 40mg/160mg HARD CAPSULES</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Indomethacin 25mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10612,23 +10612,23 @@
       </rPr>
       <t>POTASSIUM Chloride750mg/tab(10 mEq)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(Cretrol)Ezetimibe 10mg+rosuvastatin 10.4mg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>[Frotin]Metronidazole 250mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Erythromycin 250mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Rasagiline mesylate 1mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10654,35 +10654,35 @@
       </rPr>
       <t>)Lactobacillus Casei variety rhamnosus 250mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Entresto 100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Prasugrel 3.75mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Acitretin 10mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Meloxicam 15mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Topiramate 100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Tolterodine L-Tartrate 4mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Labetalol  200mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10705,11 +10705,11 @@
       </rPr>
       <t>(3)Paliperidone 3mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>SandimmunNeoraL 25mg/cap(Cyclosporin)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10735,15 +10735,15 @@
       </rPr>
       <t>)Moclobemide 150mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(0.5mg-ADVagraf)Tacrolimus 0.5mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Leflunomide 20mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10766,7 +10766,7 @@
       </rPr>
       <t>Amisulpride 200mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10792,7 +10792,7 @@
       </rPr>
       <t>)RYTMONORM 150mg/tab(PropafenoneHCl)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10818,7 +10818,7 @@
       </rPr>
       <t>-1.5mg)Pramipexole 1.5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10844,7 +10844,7 @@
       </rPr>
       <t>-30mg) NIFEDIPINE  30mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10866,7 +10866,7 @@
       </rPr>
       <t>DAbIGAtRAN 150mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10892,27 +10892,27 @@
       </rPr>
       <t>)AMLoDIpine 5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Flavoxate Hcl 200mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>IsoptinSR240mg/tab(VerapamilHCl)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Estrogen Conjugated 0.625mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Etodolac 200mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Nystatin 500000u/Tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10938,7 +10938,7 @@
       </rPr>
       <t>Levodopa 145mg)/cap.</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -10960,15 +10960,15 @@
       </rPr>
       <t>Rivaroxaban 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Norethindrone 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Mesalazine XL 1200mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11011,7 +11011,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11033,11 +11033,11 @@
       </rPr>
       <t>Rivaroxaban 15mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Clozapine 25mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11059,7 +11059,7 @@
       </rPr>
       <t>Warfarin 5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11082,11 +11082,11 @@
       </rPr>
       <t>Levofloxacin 500mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Brivaracetam 100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11112,7 +11112,7 @@
       </rPr>
       <t>)Folinate 15mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11135,7 +11135,7 @@
       </rPr>
       <t>Cyclobenzaprine 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11161,7 +11161,7 @@
       </rPr>
       <t>)Cefuroxime (Axetil) 250mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11207,7 +11207,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11249,7 +11249,7 @@
       </rPr>
       <t>)Cyproterone Acetate 50mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11271,11 +11271,11 @@
       </rPr>
       <t>Bicalutamide 50mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>( PR-0.75mg)Pramipexole PR 0.75mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11301,7 +11301,7 @@
       </rPr>
       <t>)Ciprofloxacin 500mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11347,11 +11347,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Cospanon 40mg/cap(Flopropione)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11374,15 +11374,15 @@
       </rPr>
       <t>Clarithromycin 500mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lurasidone  40mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Nifedipine 10mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11405,11 +11405,11 @@
       </rPr>
       <t>Azithromycin 250mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Naproxen 750mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11435,11 +11435,11 @@
       </rPr>
       <t>)Perampanel 2mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(200mg)EnTrEsto/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11465,23 +11465,23 @@
       </rPr>
       <t>Theophylline S.R.M.C 250mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Bambuterol 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Tolperisone HCL 150mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Felodipine 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Chlorpromazine Hcl 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11503,7 +11503,7 @@
       </rPr>
       <t>Hydroxyurea 500mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11544,7 +11544,7 @@
       </rPr>
       <t>色</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11566,19 +11566,19 @@
       </rPr>
       <t>Exemestane 25mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Provera(Medroxyprogesterone) 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F:PROVERA10|B:NONE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Glucosamine Sulfate 250mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11601,19 +11601,19 @@
       </rPr>
       <t>Saxagliptin  5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(10MG-Roaccutane )Isotretinoin 10mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Entacapone 200mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ODIGO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11636,7 +11636,7 @@
       </rPr>
       <t>Digoxin 0.25mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11659,7 +11659,7 @@
       </rPr>
       <t>Solifenacin Succinate 5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11682,7 +11682,7 @@
       </rPr>
       <t>Fusidate 250mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11708,7 +11708,7 @@
       </rPr>
       <t>)Fluconazole 50mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11734,31 +11734,31 @@
       </rPr>
       <t>)Vitamin C 500mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Haloperidol 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Terbinafine 250mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(Etumine)Clotiapine 40mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>[4mg]Dexamethasone 4mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Captopril 25mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ivabradine 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11781,23 +11781,23 @@
       </rPr>
       <t>Dexamethasone 0.75mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Flupentixol  5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>很像棕色或紅色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Hyzaar Fc Tablets 100/12.5mg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Metolazone 0.5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11823,7 +11823,7 @@
       </rPr>
       <t>)Sodium Bicarbonate 300mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11845,27 +11845,27 @@
       </rPr>
       <t>Rivaroxaban 2.5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(Vastril)Lisinopril 10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Loniten(Minoxidil)10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Fluvoxamine Maleate 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Celecoxib 200mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Pentoxifylline 400mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11891,19 +11891,19 @@
       </rPr>
       <t>)Domperidone 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Clopidogrel 75mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Zoloft (Sertraline)  50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Flunarizine 5mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11949,7 +11949,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11975,11 +11975,11 @@
       </rPr>
       <t>)DONEPEZIL 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Indapamide 1.5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12002,15 +12002,15 @@
       </rPr>
       <t>Alfuzosin 10mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Nitroglycerin 0.6mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ropinirole 0.25mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12036,23 +12036,23 @@
       </rPr>
       <t>)Progesterone 100mg/cap</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Quinidine Sulfate 200mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Eplerenone 50mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Disodium Clodronate 400mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Methyldopa anhydrous 250mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12098,19 +12098,19 @@
       </rPr>
       <t>Ergo)Ergonovine Maleate 0.2mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Minocycline (Hcl) 100mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Dronedarone Hydrochloride 400mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(Sporanox)Itraconazole 100mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12136,27 +12136,27 @@
       </rPr>
       <t>)Ticagrelor/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Pyrazinamide 500mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Torsemide 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>橘色|棕色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Danazol 200mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lemborexant 5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12179,15 +12179,15 @@
       </rPr>
       <t>Diosmin 500mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Nimodipine 30mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(ANPO)Ritodrine  10mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12213,15 +12213,15 @@
       </rPr>
       <t>-3)Paliperidone 3mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ofloxacin 200mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>(Rizatan)Rizatriptan  5mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12244,11 +12244,11 @@
       </rPr>
       <t>CARTeolol Hcl 5mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Lamotrigine 100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12274,27 +12274,27 @@
       </rPr>
       <t>)FaMciCloVir 250mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Levamisole (Hcl) 40mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Melatonin 2mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ranolazine 500mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Mebendazole 100mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ROPINIROLE  2 mg/tab</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12316,7 +12316,7 @@
       </rPr>
       <t>Rivaroxaban 20mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12347,15 +12347,15 @@
       </rPr>
       <t>紅色</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>請確認藥名與文字是否正確</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Zinc(Wilizin) 50mg/cap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -12381,18 +12381,26 @@
       </rPr>
       <t xml:space="preserve"> Tapal)Aspirin 100mg/tab</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12717,15 +12725,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12734,114 +12739,117 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13062,8 +13070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C271" sqref="C271"/>
+    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G315" sqref="G315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -16741,8 +16749,8 @@
       <c r="M85" t="s">
         <v>2061</v>
       </c>
-      <c r="N85" s="39"/>
-      <c r="O85" s="40"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="47"/>
     </row>
     <row r="86" spans="1:15" ht="16.5" customHeight="1">
       <c r="A86" s="14">
@@ -17935,8 +17943,8 @@
       <c r="M113" t="s">
         <v>2061</v>
       </c>
-      <c r="N113" s="39"/>
-      <c r="O113" s="40"/>
+      <c r="N113" s="46"/>
+      <c r="O113" s="47"/>
       <c r="P113" s="3" t="s">
         <v>594</v>
       </c>
@@ -18581,8 +18589,8 @@
       <c r="M127" t="s">
         <v>2061</v>
       </c>
-      <c r="N127" s="39"/>
-      <c r="O127" s="40"/>
+      <c r="N127" s="46"/>
+      <c r="O127" s="47"/>
       <c r="P127" s="3" t="s">
         <v>594</v>
       </c>
@@ -18713,8 +18721,8 @@
       <c r="M130" t="s">
         <v>2061</v>
       </c>
-      <c r="N130" s="39"/>
-      <c r="O130" s="40"/>
+      <c r="N130" s="46"/>
+      <c r="O130" s="47"/>
       <c r="P130" s="3" t="s">
         <v>594</v>
       </c>
@@ -20423,8 +20431,8 @@
       <c r="M168" t="s">
         <v>2061</v>
       </c>
-      <c r="N168" s="39"/>
-      <c r="O168" s="40"/>
+      <c r="N168" s="46"/>
+      <c r="O168" s="47"/>
       <c r="P168" s="3" t="s">
         <v>594</v>
       </c>
@@ -20871,8 +20879,8 @@
       <c r="M178" t="s">
         <v>2061</v>
       </c>
-      <c r="N178" s="39"/>
-      <c r="O178" s="40"/>
+      <c r="N178" s="46"/>
+      <c r="O178" s="47"/>
       <c r="P178" s="3" t="s">
         <v>594</v>
       </c>
@@ -20917,8 +20925,8 @@
       <c r="M179" t="s">
         <v>2061</v>
       </c>
-      <c r="N179" s="39"/>
-      <c r="O179" s="40"/>
+      <c r="N179" s="46"/>
+      <c r="O179" s="47"/>
       <c r="P179" s="3" t="s">
         <v>594</v>
       </c>
@@ -22773,8 +22781,8 @@
       <c r="M220" t="s">
         <v>2061</v>
       </c>
-      <c r="N220" s="39"/>
-      <c r="O220" s="40"/>
+      <c r="N220" s="46"/>
+      <c r="O220" s="47"/>
       <c r="P220" s="3" t="s">
         <v>1159</v>
       </c>
@@ -23318,8 +23326,8 @@
       <c r="M233" t="s">
         <v>2061</v>
       </c>
-      <c r="N233" s="39"/>
-      <c r="O233" s="40"/>
+      <c r="N233" s="46"/>
+      <c r="O233" s="47"/>
     </row>
     <row r="234" spans="1:16" ht="16.5" customHeight="1">
       <c r="A234" s="2">
@@ -23450,8 +23458,8 @@
       <c r="M236" t="s">
         <v>2061</v>
       </c>
-      <c r="N236" s="39"/>
-      <c r="O236" s="40"/>
+      <c r="N236" s="46"/>
+      <c r="O236" s="47"/>
     </row>
     <row r="237" spans="1:16" ht="16.5" customHeight="1">
       <c r="A237" s="2">
@@ -23533,8 +23541,8 @@
       <c r="M238" t="s">
         <v>2061</v>
       </c>
-      <c r="N238" s="39"/>
-      <c r="O238" s="40"/>
+      <c r="N238" s="46"/>
+      <c r="O238" s="47"/>
     </row>
     <row r="239" spans="1:16" ht="16.5" customHeight="1">
       <c r="A239" s="2">
@@ -24303,7 +24311,7 @@
       <c r="L256" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M256" s="41"/>
+      <c r="M256" s="39"/>
       <c r="N256" s="13"/>
       <c r="O256" s="13"/>
       <c r="P256" s="3" t="s">
@@ -24406,7 +24414,7 @@
       <c r="C259" t="s">
         <v>1342</v>
       </c>
-      <c r="D259" s="42" t="s">
+      <c r="D259" s="40" t="s">
         <v>2391</v>
       </c>
       <c r="E259" s="3" t="s">
@@ -24565,8 +24573,8 @@
       <c r="M262" t="s">
         <v>2061</v>
       </c>
-      <c r="N262" s="39"/>
-      <c r="O262" s="40"/>
+      <c r="N262" s="46"/>
+      <c r="O262" s="47"/>
     </row>
     <row r="263" spans="1:27" ht="16.5" customHeight="1">
       <c r="A263" s="2">
@@ -24820,8 +24828,8 @@
       <c r="M268" t="s">
         <v>2061</v>
       </c>
-      <c r="N268" s="39"/>
-      <c r="O268" s="40"/>
+      <c r="N268" s="46"/>
+      <c r="O268" s="47"/>
     </row>
     <row r="269" spans="1:27" ht="16.5" customHeight="1">
       <c r="A269" s="2">
@@ -24903,8 +24911,8 @@
       <c r="M270" t="s">
         <v>2061</v>
       </c>
-      <c r="N270" s="39"/>
-      <c r="O270" s="40"/>
+      <c r="N270" s="46"/>
+      <c r="O270" s="47"/>
     </row>
     <row r="271" spans="1:27" ht="16.5" customHeight="1">
       <c r="A271" s="9">
@@ -25085,7 +25093,7 @@
       <c r="C275" t="s">
         <v>1426</v>
       </c>
-      <c r="D275" s="42" t="s">
+      <c r="D275" s="40" t="s">
         <v>2404</v>
       </c>
       <c r="E275" s="3" t="s">
@@ -25284,8 +25292,8 @@
       <c r="M279" t="s">
         <v>2061</v>
       </c>
-      <c r="N279" s="39"/>
-      <c r="O279" s="40"/>
+      <c r="N279" s="46"/>
+      <c r="O279" s="47"/>
     </row>
     <row r="280" spans="1:15" ht="16.5" customHeight="1">
       <c r="A280" s="2">
@@ -25337,7 +25345,7 @@
       <c r="C281" t="s">
         <v>1459</v>
       </c>
-      <c r="D281" s="42" t="s">
+      <c r="D281" s="40" t="s">
         <v>2409</v>
       </c>
       <c r="E281" s="3" t="s">
@@ -25973,7 +25981,7 @@
       <c r="C296" t="s">
         <v>1529</v>
       </c>
-      <c r="D296" s="43" t="s">
+      <c r="D296" s="41" t="s">
         <v>2424</v>
       </c>
       <c r="E296" s="12" t="s">
@@ -26139,8 +26147,8 @@
       <c r="M299" t="s">
         <v>2061</v>
       </c>
-      <c r="N299" s="39"/>
-      <c r="O299" s="40"/>
+      <c r="N299" s="46"/>
+      <c r="O299" s="47"/>
     </row>
     <row r="300" spans="1:27" ht="16.5" customHeight="1">
       <c r="A300" s="2">
@@ -26195,7 +26203,7 @@
       <c r="C301" t="s">
         <v>1553</v>
       </c>
-      <c r="D301" s="42" t="s">
+      <c r="D301" s="40" t="s">
         <v>2428</v>
       </c>
       <c r="E301" s="3" t="s">
@@ -26364,7 +26372,7 @@
       <c r="C305" t="s">
         <v>1573</v>
       </c>
-      <c r="D305" s="42" t="s">
+      <c r="D305" s="40" t="s">
         <v>2431</v>
       </c>
       <c r="E305" s="3" t="s">
@@ -26702,7 +26710,7 @@
       <c r="C313" t="s">
         <v>1613</v>
       </c>
-      <c r="D313" s="42" t="s">
+      <c r="D313" s="40" t="s">
         <v>2440</v>
       </c>
       <c r="E313" s="3" t="s">
@@ -26831,7 +26839,7 @@
       <c r="C316" t="s">
         <v>1628</v>
       </c>
-      <c r="D316" s="42" t="s">
+      <c r="D316" s="40" t="s">
         <v>2443</v>
       </c>
       <c r="E316" s="3" t="s">
@@ -27199,8 +27207,8 @@
       <c r="M324" t="s">
         <v>2061</v>
       </c>
-      <c r="N324" s="39"/>
-      <c r="O324" s="40"/>
+      <c r="N324" s="46"/>
+      <c r="O324" s="47"/>
     </row>
     <row r="325" spans="1:15" ht="16.5" customHeight="1">
       <c r="A325" s="2">
@@ -27362,7 +27370,7 @@
       <c r="M328" t="s">
         <v>2061</v>
       </c>
-      <c r="N328" s="45" t="s">
+      <c r="N328" s="43" t="s">
         <v>2317</v>
       </c>
       <c r="O328" s="13"/>
@@ -27377,7 +27385,7 @@
       <c r="C329" t="s">
         <v>1690</v>
       </c>
-      <c r="D329" s="42" t="s">
+      <c r="D329" s="40" t="s">
         <v>2458</v>
       </c>
       <c r="E329" s="3" t="s">
@@ -27506,7 +27514,7 @@
       <c r="C332" s="3" t="s">
         <v>2461</v>
       </c>
-      <c r="D332" s="42" t="s">
+      <c r="D332" s="40" t="s">
         <v>2462</v>
       </c>
       <c r="E332" s="3" t="s">
@@ -27549,7 +27557,7 @@
       <c r="C333" t="s">
         <v>1711</v>
       </c>
-      <c r="D333" s="42" t="s">
+      <c r="D333" s="40" t="s">
         <v>2463</v>
       </c>
       <c r="E333" s="3" t="s">
@@ -27589,7 +27597,7 @@
       <c r="C334" t="s">
         <v>1714</v>
       </c>
-      <c r="D334" s="42" t="s">
+      <c r="D334" s="40" t="s">
         <v>2464</v>
       </c>
       <c r="E334" s="3" t="s">
@@ -27705,8 +27713,8 @@
       <c r="M336" t="s">
         <v>2061</v>
       </c>
-      <c r="N336" s="39"/>
-      <c r="O336" s="40"/>
+      <c r="N336" s="46"/>
+      <c r="O336" s="47"/>
     </row>
     <row r="337" spans="1:15" ht="16.5" customHeight="1">
       <c r="A337" s="2">
@@ -27976,7 +27984,7 @@
       <c r="C343" t="s">
         <v>1761</v>
       </c>
-      <c r="D343" s="42" t="s">
+      <c r="D343" s="40" t="s">
         <v>2473</v>
       </c>
       <c r="E343" s="3" t="s">
@@ -28211,8 +28219,8 @@
       <c r="M348" t="s">
         <v>2061</v>
       </c>
-      <c r="N348" s="39"/>
-      <c r="O348" s="40"/>
+      <c r="N348" s="46"/>
+      <c r="O348" s="47"/>
     </row>
     <row r="349" spans="1:15" ht="16.5" customHeight="1">
       <c r="A349" s="2">
@@ -28377,8 +28385,8 @@
       <c r="M352" t="s">
         <v>2061</v>
       </c>
-      <c r="N352" s="39"/>
-      <c r="O352" s="40"/>
+      <c r="N352" s="46"/>
+      <c r="O352" s="47"/>
     </row>
     <row r="353" spans="1:27" ht="16.5" customHeight="1">
       <c r="A353" s="2">
@@ -28709,8 +28717,8 @@
       <c r="M360" t="s">
         <v>2061</v>
       </c>
-      <c r="N360" s="39"/>
-      <c r="O360" s="40"/>
+      <c r="N360" s="46"/>
+      <c r="O360" s="47"/>
     </row>
     <row r="361" spans="1:27" ht="16.5" customHeight="1">
       <c r="A361" s="2">
@@ -28765,7 +28773,7 @@
       <c r="C362" t="s">
         <v>1852</v>
       </c>
-      <c r="D362" s="43" t="s">
+      <c r="D362" s="41" t="s">
         <v>2492</v>
       </c>
       <c r="E362" s="12" t="s">
@@ -28930,8 +28938,8 @@
       <c r="M365" t="s">
         <v>2061</v>
       </c>
-      <c r="N365" s="39"/>
-      <c r="O365" s="40"/>
+      <c r="N365" s="46"/>
+      <c r="O365" s="47"/>
     </row>
     <row r="366" spans="1:27" ht="16.5" customHeight="1">
       <c r="A366" s="2">
@@ -29053,8 +29061,8 @@
       <c r="M368" t="s">
         <v>2061</v>
       </c>
-      <c r="N368" s="39"/>
-      <c r="O368" s="40"/>
+      <c r="N368" s="46"/>
+      <c r="O368" s="47"/>
     </row>
     <row r="369" spans="1:21" ht="16.5" customHeight="1">
       <c r="A369" s="2">
@@ -29139,8 +29147,8 @@
       <c r="M370" t="s">
         <v>2061</v>
       </c>
-      <c r="N370" s="39"/>
-      <c r="O370" s="40"/>
+      <c r="N370" s="46"/>
+      <c r="O370" s="47"/>
     </row>
     <row r="371" spans="1:21" ht="16.5" customHeight="1">
       <c r="A371" s="2">
@@ -29613,7 +29621,7 @@
       <c r="C382" t="s">
         <v>1950</v>
       </c>
-      <c r="D382" s="42" t="s">
+      <c r="D382" s="40" t="s">
         <v>2510</v>
       </c>
       <c r="E382" s="3" t="s">
@@ -29911,7 +29919,7 @@
       <c r="C389" t="s">
         <v>1982</v>
       </c>
-      <c r="D389" s="42" t="s">
+      <c r="D389" s="40" t="s">
         <v>2516</v>
       </c>
       <c r="E389" s="3" t="s">
@@ -30113,8 +30121,8 @@
       <c r="M393" t="s">
         <v>2061</v>
       </c>
-      <c r="N393" s="39"/>
-      <c r="O393" s="40"/>
+      <c r="N393" s="46"/>
+      <c r="O393" s="47"/>
     </row>
     <row r="394" spans="1:21" ht="16.5" customHeight="1">
       <c r="A394" s="2">
@@ -30368,51 +30376,51 @@
       <c r="N399" s="13"/>
       <c r="O399" s="13"/>
     </row>
-    <row r="400" spans="1:21" s="47" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A400" s="46">
+    <row r="400" spans="1:21" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A400" s="44">
         <v>399</v>
       </c>
-      <c r="B400" s="47" t="s">
+      <c r="B400" s="45" t="s">
         <v>2031</v>
       </c>
-      <c r="C400" s="47" t="s">
+      <c r="C400" s="45" t="s">
         <v>2031</v>
       </c>
-      <c r="D400" s="47" t="s">
+      <c r="D400" s="45" t="s">
         <v>2032</v>
       </c>
-      <c r="E400" s="47" t="s">
+      <c r="E400" s="45" t="s">
         <v>2033</v>
       </c>
-      <c r="F400" s="47" t="s">
+      <c r="F400" s="45" t="s">
         <v>2034</v>
       </c>
-      <c r="G400" s="47" t="s">
+      <c r="G400" s="45" t="s">
         <v>2035</v>
       </c>
-      <c r="H400" s="47" t="s">
+      <c r="H400" s="45" t="s">
         <v>2036</v>
       </c>
-      <c r="I400" s="46" t="s">
+      <c r="I400" s="44" t="s">
         <v>2037</v>
       </c>
-      <c r="J400" s="46" t="s">
+      <c r="J400" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="K400" s="47" t="s">
+      <c r="K400" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="L400" s="47" t="s">
+      <c r="L400" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="M400" s="47" t="s">
-        <v>2061</v>
-      </c>
-      <c r="N400" s="44" t="s">
+      <c r="M400" s="45" t="s">
+        <v>2061</v>
+      </c>
+      <c r="N400" s="42" t="s">
         <v>2526</v>
       </c>
-      <c r="O400" s="44"/>
-      <c r="P400" s="47" t="s">
+      <c r="O400" s="42"/>
+      <c r="P400" s="45" t="s">
         <v>2038</v>
       </c>
     </row>
@@ -30456,7 +30464,7 @@
       <c r="M401" t="s">
         <v>2061</v>
       </c>
-      <c r="N401" s="45" t="s">
+      <c r="N401" s="43" t="s">
         <v>2317</v>
       </c>
       <c r="O401" s="13"/>
@@ -30541,8 +30549,8 @@
       <c r="M403" t="s">
         <v>2061</v>
       </c>
-      <c r="N403" s="39"/>
-      <c r="O403" s="40"/>
+      <c r="N403" s="46"/>
+      <c r="O403" s="47"/>
     </row>
     <row r="404" spans="1:19" ht="16.5" customHeight="1"/>
     <row r="405" spans="1:19" ht="16.5" customHeight="1">
@@ -31172,16 +31180,6 @@
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="N130:O130"/>
-    <mergeCell ref="N168:O168"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="N220:O220"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="N236:O236"/>
     <mergeCell ref="N368:O368"/>
     <mergeCell ref="N370:O370"/>
     <mergeCell ref="N393:O393"/>
@@ -31198,8 +31196,18 @@
     <mergeCell ref="N348:O348"/>
     <mergeCell ref="N352:O352"/>
     <mergeCell ref="N360:O360"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="N220:O220"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="N236:O236"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="N168:O168"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L403" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"James,Rushi,Shawn"</formula1>

--- a/data/TESTData.xlsx
+++ b/data/TESTData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92102\OneDrive - NTHU\桌面\大三下\畢業專題\APP_新版本\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843A9FD-A22A-4561-8A30-3DB9BEB65476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A049110D-B7D0-4551-9D91-491F18F6D6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13054,8 +13054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270:A402"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -14637,7 +14637,7 @@
         <v>206</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>18</v>
@@ -31118,16 +31118,6 @@
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="N130:O130"/>
-    <mergeCell ref="N168:O168"/>
-    <mergeCell ref="N178:O178"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="N220:O220"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="N236:O236"/>
     <mergeCell ref="N367:O367"/>
     <mergeCell ref="N369:O369"/>
     <mergeCell ref="N392:O392"/>
@@ -31144,6 +31134,16 @@
     <mergeCell ref="N347:O347"/>
     <mergeCell ref="N351:O351"/>
     <mergeCell ref="N359:O359"/>
+    <mergeCell ref="N178:O178"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="N220:O220"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="N236:O236"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="N168:O168"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="5">
